--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2045.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2045.xlsx
@@ -1240,451 +1240,379 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>205</v>
-      </c>
-      <c r="B14" t="n">
-        <v>422.52</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>2001.06</v>
-      </c>
-      <c r="D14" t="n">
-        <v>161.7018181818182</v>
-      </c>
-      <c r="E14" t="n">
-        <v>161.7018181818182</v>
-      </c>
-      <c r="F14" t="n">
-        <v>161.7018181818182</v>
-      </c>
-      <c r="G14" t="n">
-        <v>141.4890909090909</v>
-      </c>
-      <c r="H14" t="n">
-        <v>121.2763636363636</v>
-      </c>
-      <c r="I14" t="n">
-        <v>121.2763636363636</v>
-      </c>
-      <c r="J14" t="n">
-        <v>101.0636363636364</v>
-      </c>
-      <c r="K14" t="n">
-        <v>121.2763636363636</v>
-      </c>
-      <c r="L14" t="n">
-        <v>101.0636363636364</v>
-      </c>
-      <c r="M14" t="n">
-        <v>161.7018181818182</v>
-      </c>
-      <c r="N14" t="n">
-        <v>121.2763636363636</v>
-      </c>
-      <c r="O14" t="n">
-        <v>121.2763636363636</v>
-      </c>
-      <c r="P14" t="n">
-        <v>80.85090909090908</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>80.85090909090908</v>
-      </c>
-      <c r="R14" t="n">
-        <v>80.85090909090908</v>
-      </c>
-      <c r="S14" t="n">
-        <v>161.7018181818182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B15" t="n">
-        <v>252.74</v>
+        <v>422.52</v>
       </c>
       <c r="C15" t="n">
-        <v>1170.42</v>
+        <v>2001.06</v>
       </c>
       <c r="D15" t="n">
-        <v>94.57939393939394</v>
+        <v>161.7018181818182</v>
       </c>
       <c r="E15" t="n">
-        <v>94.57939393939394</v>
+        <v>161.7018181818182</v>
       </c>
       <c r="F15" t="n">
-        <v>94.57939393939394</v>
+        <v>161.7018181818182</v>
       </c>
       <c r="G15" t="n">
-        <v>82.7569696969697</v>
+        <v>141.4890909090909</v>
       </c>
       <c r="H15" t="n">
-        <v>70.93454545454546</v>
+        <v>121.2763636363636</v>
       </c>
       <c r="I15" t="n">
-        <v>70.93454545454546</v>
+        <v>121.2763636363636</v>
       </c>
       <c r="J15" t="n">
-        <v>59.11212121212122</v>
+        <v>101.0636363636364</v>
       </c>
       <c r="K15" t="n">
-        <v>70.93454545454546</v>
+        <v>121.2763636363636</v>
       </c>
       <c r="L15" t="n">
-        <v>59.11212121212122</v>
+        <v>101.0636363636364</v>
       </c>
       <c r="M15" t="n">
-        <v>94.57939393939394</v>
+        <v>161.7018181818182</v>
       </c>
       <c r="N15" t="n">
-        <v>70.93454545454546</v>
+        <v>121.2763636363636</v>
       </c>
       <c r="O15" t="n">
-        <v>70.93454545454546</v>
+        <v>121.2763636363636</v>
       </c>
       <c r="P15" t="n">
-        <v>47.28969696969697</v>
+        <v>80.85090909090908</v>
       </c>
       <c r="Q15" t="n">
-        <v>47.28969696969697</v>
+        <v>80.85090909090908</v>
       </c>
       <c r="R15" t="n">
-        <v>47.28969696969697</v>
+        <v>80.85090909090908</v>
       </c>
       <c r="S15" t="n">
-        <v>94.57939393939394</v>
+        <v>161.7018181818182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3607</v>
+        <v>202</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>252.74</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1170.42</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>94.57939393939394</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>94.57939393939394</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>94.57939393939394</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>82.7569696969697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>70.93454545454546</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>70.93454545454546</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.11212121212122</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>70.93454545454546</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>59.11212121212122</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>94.57939393939394</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>70.93454545454546</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>70.93454545454546</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>47.28969696969697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>47.28969696969697</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.28969696969697</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>94.57939393939394</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6504</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
+        <v>3607</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1303</v>
-      </c>
-      <c r="B18" t="n">
-        <v>912.61</v>
-      </c>
+        <v>6504</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>4106.739999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>365.9471287128712</v>
-      </c>
-      <c r="E18" t="n">
-        <v>365.9471287128712</v>
-      </c>
-      <c r="F18" t="n">
-        <v>325.2863366336633</v>
-      </c>
-      <c r="G18" t="n">
-        <v>325.2863366336633</v>
-      </c>
-      <c r="H18" t="n">
-        <v>284.6255445544554</v>
-      </c>
-      <c r="I18" t="n">
-        <v>284.6255445544554</v>
-      </c>
-      <c r="J18" t="n">
-        <v>243.9647524752475</v>
-      </c>
-      <c r="K18" t="n">
-        <v>243.9647524752475</v>
-      </c>
-      <c r="L18" t="n">
-        <v>243.9647524752475</v>
-      </c>
-      <c r="M18" t="n">
-        <v>365.9471287128712</v>
-      </c>
-      <c r="N18" t="n">
-        <v>243.9647524752475</v>
-      </c>
-      <c r="O18" t="n">
-        <v>203.3039603960395</v>
-      </c>
-      <c r="P18" t="n">
-        <v>162.6431683168316</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>121.9823762376237</v>
-      </c>
-      <c r="R18" t="n">
-        <v>121.9823762376237</v>
-      </c>
-      <c r="S18" t="n">
-        <v>203.3039603960395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6503</v>
+        <v>1303</v>
       </c>
       <c r="B19" t="n">
-        <v>1159.67</v>
+        <v>912.61</v>
       </c>
       <c r="C19" t="n">
-        <v>5218.519999999999</v>
+        <v>4106.739999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>479.2518367346937</v>
+        <v>365.9471287128712</v>
       </c>
       <c r="E19" t="n">
-        <v>479.2518367346937</v>
+        <v>365.9471287128712</v>
       </c>
       <c r="F19" t="n">
-        <v>479.2518367346937</v>
+        <v>325.2863366336633</v>
       </c>
       <c r="G19" t="n">
-        <v>426.0016326530612</v>
+        <v>325.2863366336633</v>
       </c>
       <c r="H19" t="n">
-        <v>372.7514285714285</v>
+        <v>284.6255445544554</v>
       </c>
       <c r="I19" t="n">
-        <v>372.7514285714285</v>
+        <v>284.6255445544554</v>
       </c>
       <c r="J19" t="n">
-        <v>319.5012244897958</v>
+        <v>243.9647524752475</v>
       </c>
       <c r="K19" t="n">
-        <v>319.5012244897958</v>
+        <v>243.9647524752475</v>
       </c>
       <c r="L19" t="n">
-        <v>319.5012244897958</v>
+        <v>243.9647524752475</v>
       </c>
       <c r="M19" t="n">
-        <v>479.2518367346937</v>
+        <v>365.9471287128712</v>
       </c>
       <c r="N19" t="n">
-        <v>266.2510204081632</v>
+        <v>243.9647524752475</v>
       </c>
       <c r="O19" t="n">
-        <v>213.0008163265306</v>
+        <v>203.3039603960395</v>
       </c>
       <c r="P19" t="n">
-        <v>159.7506122448979</v>
+        <v>162.6431683168316</v>
       </c>
       <c r="Q19" t="n">
-        <v>159.7506122448979</v>
+        <v>121.9823762376237</v>
       </c>
       <c r="R19" t="n">
-        <v>159.7506122448979</v>
+        <v>121.9823762376237</v>
       </c>
       <c r="S19" t="n">
-        <v>213.0008163265306</v>
+        <v>203.3039603960395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6505</v>
+        <v>6503</v>
       </c>
       <c r="B20" t="n">
-        <v>2251.98</v>
+        <v>1159.67</v>
       </c>
       <c r="C20" t="n">
-        <v>10133.9</v>
+        <v>5218.519999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>930.6642857142853</v>
+        <v>479.2518367346937</v>
       </c>
       <c r="E20" t="n">
-        <v>930.6642857142853</v>
+        <v>479.2518367346937</v>
       </c>
       <c r="F20" t="n">
-        <v>930.6642857142853</v>
+        <v>479.2518367346937</v>
       </c>
       <c r="G20" t="n">
-        <v>827.2571428571426</v>
+        <v>426.0016326530612</v>
       </c>
       <c r="H20" t="n">
-        <v>723.8499999999998</v>
+        <v>372.7514285714285</v>
       </c>
       <c r="I20" t="n">
-        <v>723.8499999999998</v>
+        <v>372.7514285714285</v>
       </c>
       <c r="J20" t="n">
-        <v>620.442857142857</v>
+        <v>319.5012244897958</v>
       </c>
       <c r="K20" t="n">
-        <v>620.442857142857</v>
+        <v>319.5012244897958</v>
       </c>
       <c r="L20" t="n">
-        <v>620.442857142857</v>
+        <v>319.5012244897958</v>
       </c>
       <c r="M20" t="n">
-        <v>930.6642857142853</v>
+        <v>479.2518367346937</v>
       </c>
       <c r="N20" t="n">
-        <v>517.0357142857141</v>
+        <v>266.2510204081632</v>
       </c>
       <c r="O20" t="n">
-        <v>413.6285714285713</v>
+        <v>213.0008163265306</v>
       </c>
       <c r="P20" t="n">
-        <v>310.2214285714285</v>
+        <v>159.7506122448979</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.2214285714285</v>
+        <v>159.7506122448979</v>
       </c>
       <c r="R20" t="n">
-        <v>310.2214285714285</v>
+        <v>159.7506122448979</v>
       </c>
       <c r="S20" t="n">
-        <v>413.6285714285713</v>
+        <v>213.0008163265306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6701</v>
+        <v>6505</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2251.98</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+        <v>10133.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>930.6642857142853</v>
+      </c>
+      <c r="E21" t="n">
+        <v>930.6642857142853</v>
+      </c>
+      <c r="F21" t="n">
+        <v>930.6642857142853</v>
+      </c>
+      <c r="G21" t="n">
+        <v>827.2571428571426</v>
+      </c>
+      <c r="H21" t="n">
+        <v>723.8499999999998</v>
+      </c>
+      <c r="I21" t="n">
+        <v>723.8499999999998</v>
+      </c>
+      <c r="J21" t="n">
+        <v>620.442857142857</v>
+      </c>
+      <c r="K21" t="n">
+        <v>620.442857142857</v>
+      </c>
+      <c r="L21" t="n">
+        <v>620.442857142857</v>
+      </c>
+      <c r="M21" t="n">
+        <v>930.6642857142853</v>
+      </c>
+      <c r="N21" t="n">
+        <v>517.0357142857141</v>
+      </c>
+      <c r="O21" t="n">
+        <v>413.6285714285713</v>
+      </c>
+      <c r="P21" t="n">
+        <v>310.2214285714285</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>310.2214285714285</v>
+      </c>
+      <c r="R21" t="n">
+        <v>310.2214285714285</v>
+      </c>
+      <c r="S21" t="n">
+        <v>413.6285714285713</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6703</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+        <v>6701</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>0</v>
       </c>
@@ -1707,11 +1635,9 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6702</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
+        <v>6703</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>0</v>
       </c>
@@ -1734,2543 +1660,2401 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6610</v>
-      </c>
-      <c r="B24" t="n">
-        <v>241.77</v>
-      </c>
+        <v>6702</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>996.4999999999998</v>
-      </c>
-      <c r="D24" t="n">
-        <v>90.59090909090905</v>
-      </c>
-      <c r="E24" t="n">
-        <v>90.59090909090905</v>
-      </c>
-      <c r="F24" t="n">
-        <v>90.59090909090905</v>
-      </c>
-      <c r="G24" t="n">
-        <v>80.5252525252525</v>
-      </c>
-      <c r="H24" t="n">
-        <v>70.45959595959594</v>
-      </c>
-      <c r="I24" t="n">
-        <v>70.45959595959594</v>
-      </c>
-      <c r="J24" t="n">
-        <v>60.39393939393938</v>
-      </c>
-      <c r="K24" t="n">
-        <v>60.39393939393938</v>
-      </c>
-      <c r="L24" t="n">
-        <v>60.39393939393938</v>
-      </c>
-      <c r="M24" t="n">
-        <v>90.59090909090905</v>
-      </c>
-      <c r="N24" t="n">
-        <v>50.32828282828282</v>
-      </c>
-      <c r="O24" t="n">
-        <v>40.26262626262625</v>
-      </c>
-      <c r="P24" t="n">
-        <v>30.19696969696969</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>30.19696969696969</v>
-      </c>
-      <c r="R24" t="n">
-        <v>30.19696969696969</v>
-      </c>
-      <c r="S24" t="n">
-        <v>50.32828282828282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6602</v>
+        <v>6610</v>
       </c>
       <c r="B25" t="n">
-        <v>772.46</v>
+        <v>241.77</v>
       </c>
       <c r="C25" t="n">
-        <v>3237.749999999999</v>
+        <v>996.4999999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>294.340909090909</v>
+        <v>90.59090909090905</v>
       </c>
       <c r="E25" t="n">
-        <v>294.340909090909</v>
+        <v>90.59090909090905</v>
       </c>
       <c r="F25" t="n">
-        <v>294.340909090909</v>
+        <v>90.59090909090905</v>
       </c>
       <c r="G25" t="n">
-        <v>261.6363636363636</v>
+        <v>80.5252525252525</v>
       </c>
       <c r="H25" t="n">
-        <v>228.9318181818181</v>
+        <v>70.45959595959594</v>
       </c>
       <c r="I25" t="n">
-        <v>228.9318181818181</v>
+        <v>70.45959595959594</v>
       </c>
       <c r="J25" t="n">
-        <v>196.2272727272727</v>
+        <v>60.39393939393938</v>
       </c>
       <c r="K25" t="n">
-        <v>196.2272727272727</v>
+        <v>60.39393939393938</v>
       </c>
       <c r="L25" t="n">
-        <v>196.2272727272727</v>
+        <v>60.39393939393938</v>
       </c>
       <c r="M25" t="n">
-        <v>294.340909090909</v>
+        <v>90.59090909090905</v>
       </c>
       <c r="N25" t="n">
-        <v>163.5227272727272</v>
+        <v>50.32828282828282</v>
       </c>
       <c r="O25" t="n">
-        <v>130.8181818181818</v>
+        <v>40.26262626262625</v>
       </c>
       <c r="P25" t="n">
-        <v>98.11363636363633</v>
+        <v>30.19696969696969</v>
       </c>
       <c r="Q25" t="n">
-        <v>98.11363636363633</v>
+        <v>30.19696969696969</v>
       </c>
       <c r="R25" t="n">
-        <v>98.11363636363633</v>
+        <v>30.19696969696969</v>
       </c>
       <c r="S25" t="n">
-        <v>163.5227272727272</v>
+        <v>50.32828282828282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="B26" t="n">
-        <v>884.54</v>
+        <v>772.46</v>
       </c>
       <c r="C26" t="n">
-        <v>3699.709999999999</v>
+        <v>3237.749999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>336.3372727272726</v>
+        <v>294.340909090909</v>
       </c>
       <c r="E26" t="n">
-        <v>336.3372727272726</v>
+        <v>294.340909090909</v>
       </c>
       <c r="F26" t="n">
-        <v>336.3372727272726</v>
+        <v>294.340909090909</v>
       </c>
       <c r="G26" t="n">
-        <v>298.9664646464645</v>
+        <v>261.6363636363636</v>
       </c>
       <c r="H26" t="n">
-        <v>261.5956565656565</v>
+        <v>228.9318181818181</v>
       </c>
       <c r="I26" t="n">
-        <v>261.5956565656565</v>
+        <v>228.9318181818181</v>
       </c>
       <c r="J26" t="n">
-        <v>224.2248484848484</v>
+        <v>196.2272727272727</v>
       </c>
       <c r="K26" t="n">
-        <v>224.2248484848484</v>
+        <v>196.2272727272727</v>
       </c>
       <c r="L26" t="n">
-        <v>224.2248484848484</v>
+        <v>196.2272727272727</v>
       </c>
       <c r="M26" t="n">
-        <v>336.3372727272726</v>
+        <v>294.340909090909</v>
       </c>
       <c r="N26" t="n">
-        <v>186.8540404040403</v>
+        <v>163.5227272727272</v>
       </c>
       <c r="O26" t="n">
-        <v>149.4832323232323</v>
+        <v>130.8181818181818</v>
       </c>
       <c r="P26" t="n">
-        <v>112.1124242424242</v>
+        <v>98.11363636363633</v>
       </c>
       <c r="Q26" t="n">
-        <v>112.1124242424242</v>
+        <v>98.11363636363633</v>
       </c>
       <c r="R26" t="n">
-        <v>112.1124242424242</v>
+        <v>98.11363636363633</v>
       </c>
       <c r="S26" t="n">
-        <v>186.8540404040403</v>
+        <v>163.5227272727272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="B27" t="n">
-        <v>352.32</v>
+        <v>884.54</v>
       </c>
       <c r="C27" t="n">
-        <v>1465.64</v>
+        <v>3699.709999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>133.24</v>
+        <v>336.3372727272726</v>
       </c>
       <c r="E27" t="n">
-        <v>133.24</v>
+        <v>336.3372727272726</v>
       </c>
       <c r="F27" t="n">
-        <v>133.24</v>
+        <v>336.3372727272726</v>
       </c>
       <c r="G27" t="n">
-        <v>118.4355555555555</v>
+        <v>298.9664646464645</v>
       </c>
       <c r="H27" t="n">
-        <v>103.6311111111111</v>
+        <v>261.5956565656565</v>
       </c>
       <c r="I27" t="n">
-        <v>103.6311111111111</v>
+        <v>261.5956565656565</v>
       </c>
       <c r="J27" t="n">
-        <v>88.82666666666664</v>
+        <v>224.2248484848484</v>
       </c>
       <c r="K27" t="n">
-        <v>88.82666666666664</v>
+        <v>224.2248484848484</v>
       </c>
       <c r="L27" t="n">
-        <v>88.82666666666664</v>
+        <v>224.2248484848484</v>
       </c>
       <c r="M27" t="n">
-        <v>133.24</v>
+        <v>336.3372727272726</v>
       </c>
       <c r="N27" t="n">
-        <v>74.02222222222221</v>
+        <v>186.8540404040403</v>
       </c>
       <c r="O27" t="n">
-        <v>59.21777777777777</v>
+        <v>149.4832323232323</v>
       </c>
       <c r="P27" t="n">
-        <v>44.41333333333332</v>
+        <v>112.1124242424242</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.41333333333332</v>
+        <v>112.1124242424242</v>
       </c>
       <c r="R27" t="n">
-        <v>44.41333333333332</v>
+        <v>112.1124242424242</v>
       </c>
       <c r="S27" t="n">
-        <v>74.02222222222221</v>
+        <v>186.8540404040403</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="B28" t="n">
-        <v>487.14</v>
+        <v>352.32</v>
       </c>
       <c r="C28" t="n">
-        <v>2115.719999999999</v>
+        <v>1465.64</v>
       </c>
       <c r="D28" t="n">
-        <v>192.3381818181817</v>
+        <v>133.24</v>
       </c>
       <c r="E28" t="n">
-        <v>192.3381818181817</v>
+        <v>133.24</v>
       </c>
       <c r="F28" t="n">
-        <v>192.3381818181817</v>
+        <v>133.24</v>
       </c>
       <c r="G28" t="n">
-        <v>170.9672727272727</v>
+        <v>118.4355555555555</v>
       </c>
       <c r="H28" t="n">
-        <v>149.5963636363636</v>
+        <v>103.6311111111111</v>
       </c>
       <c r="I28" t="n">
-        <v>149.5963636363636</v>
+        <v>103.6311111111111</v>
       </c>
       <c r="J28" t="n">
-        <v>128.2254545454545</v>
+        <v>88.82666666666664</v>
       </c>
       <c r="K28" t="n">
-        <v>128.2254545454545</v>
+        <v>88.82666666666664</v>
       </c>
       <c r="L28" t="n">
-        <v>128.2254545454545</v>
+        <v>88.82666666666664</v>
       </c>
       <c r="M28" t="n">
-        <v>192.3381818181817</v>
+        <v>133.24</v>
       </c>
       <c r="N28" t="n">
-        <v>106.8545454545454</v>
+        <v>74.02222222222221</v>
       </c>
       <c r="O28" t="n">
-        <v>85.48363636363634</v>
+        <v>59.21777777777777</v>
       </c>
       <c r="P28" t="n">
-        <v>64.11272727272724</v>
+        <v>44.41333333333332</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.11272727272724</v>
+        <v>44.41333333333332</v>
       </c>
       <c r="R28" t="n">
-        <v>64.11272727272724</v>
+        <v>44.41333333333332</v>
       </c>
       <c r="S28" t="n">
-        <v>106.8545454545454</v>
+        <v>74.02222222222221</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="B29" t="n">
-        <v>1744.18</v>
+        <v>487.14</v>
       </c>
       <c r="C29" t="n">
-        <v>7404.689999999997</v>
+        <v>2115.719999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>673.153636363636</v>
+        <v>192.3381818181817</v>
       </c>
       <c r="E29" t="n">
-        <v>673.153636363636</v>
+        <v>192.3381818181817</v>
       </c>
       <c r="F29" t="n">
-        <v>673.153636363636</v>
+        <v>192.3381818181817</v>
       </c>
       <c r="G29" t="n">
-        <v>598.3587878787877</v>
+        <v>170.9672727272727</v>
       </c>
       <c r="H29" t="n">
-        <v>523.5639393939392</v>
+        <v>149.5963636363636</v>
       </c>
       <c r="I29" t="n">
-        <v>523.5639393939392</v>
+        <v>149.5963636363636</v>
       </c>
       <c r="J29" t="n">
-        <v>448.7690909090907</v>
+        <v>128.2254545454545</v>
       </c>
       <c r="K29" t="n">
-        <v>448.7690909090907</v>
+        <v>128.2254545454545</v>
       </c>
       <c r="L29" t="n">
-        <v>448.7690909090907</v>
+        <v>128.2254545454545</v>
       </c>
       <c r="M29" t="n">
-        <v>673.153636363636</v>
+        <v>192.3381818181817</v>
       </c>
       <c r="N29" t="n">
-        <v>373.9742424242423</v>
+        <v>106.8545454545454</v>
       </c>
       <c r="O29" t="n">
-        <v>299.1793939393938</v>
+        <v>85.48363636363634</v>
       </c>
       <c r="P29" t="n">
-        <v>224.3845454545454</v>
+        <v>64.11272727272724</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.3845454545454</v>
+        <v>64.11272727272724</v>
       </c>
       <c r="R29" t="n">
-        <v>224.3845454545454</v>
+        <v>64.11272727272724</v>
       </c>
       <c r="S29" t="n">
-        <v>373.9742424242423</v>
+        <v>106.8545454545454</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6507</v>
+        <v>6606</v>
       </c>
       <c r="B30" t="n">
-        <v>1556.76</v>
+        <v>1744.18</v>
       </c>
       <c r="C30" t="n">
-        <v>6686.129999999997</v>
+        <v>7404.689999999997</v>
       </c>
       <c r="D30" t="n">
-        <v>607.8299999999997</v>
+        <v>673.153636363636</v>
       </c>
       <c r="E30" t="n">
-        <v>607.8299999999997</v>
+        <v>673.153636363636</v>
       </c>
       <c r="F30" t="n">
-        <v>607.8299999999997</v>
+        <v>673.153636363636</v>
       </c>
       <c r="G30" t="n">
-        <v>540.2933333333332</v>
+        <v>598.3587878787877</v>
       </c>
       <c r="H30" t="n">
-        <v>472.7566666666665</v>
+        <v>523.5639393939392</v>
       </c>
       <c r="I30" t="n">
-        <v>472.7566666666665</v>
+        <v>523.5639393939392</v>
       </c>
       <c r="J30" t="n">
-        <v>405.2199999999999</v>
+        <v>448.7690909090907</v>
       </c>
       <c r="K30" t="n">
-        <v>405.2199999999999</v>
+        <v>448.7690909090907</v>
       </c>
       <c r="L30" t="n">
-        <v>405.2199999999999</v>
+        <v>448.7690909090907</v>
       </c>
       <c r="M30" t="n">
-        <v>607.8299999999997</v>
+        <v>673.153636363636</v>
       </c>
       <c r="N30" t="n">
-        <v>337.6833333333332</v>
+        <v>373.9742424242423</v>
       </c>
       <c r="O30" t="n">
-        <v>270.1466666666666</v>
+        <v>299.1793939393938</v>
       </c>
       <c r="P30" t="n">
-        <v>202.6099999999999</v>
+        <v>224.3845454545454</v>
       </c>
       <c r="Q30" t="n">
-        <v>202.6099999999999</v>
+        <v>224.3845454545454</v>
       </c>
       <c r="R30" t="n">
-        <v>202.6099999999999</v>
+        <v>224.3845454545454</v>
       </c>
       <c r="S30" t="n">
-        <v>337.6833333333332</v>
+        <v>373.9742424242423</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="B31" t="n">
-        <v>1914.4</v>
+        <v>1556.76</v>
       </c>
       <c r="C31" t="n">
-        <v>8160.199999999998</v>
+        <v>6686.129999999997</v>
       </c>
       <c r="D31" t="n">
-        <v>741.8363636363633</v>
+        <v>607.8299999999997</v>
       </c>
       <c r="E31" t="n">
-        <v>741.8363636363633</v>
+        <v>607.8299999999997</v>
       </c>
       <c r="F31" t="n">
-        <v>741.8363636363633</v>
+        <v>607.8299999999997</v>
       </c>
       <c r="G31" t="n">
-        <v>659.4101010101008</v>
+        <v>540.2933333333332</v>
       </c>
       <c r="H31" t="n">
-        <v>576.9838383838382</v>
+        <v>472.7566666666665</v>
       </c>
       <c r="I31" t="n">
-        <v>576.9838383838382</v>
+        <v>472.7566666666665</v>
       </c>
       <c r="J31" t="n">
-        <v>494.5575757575756</v>
+        <v>405.2199999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>494.5575757575756</v>
+        <v>405.2199999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>494.5575757575756</v>
+        <v>405.2199999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>741.8363636363633</v>
+        <v>607.8299999999997</v>
       </c>
       <c r="N31" t="n">
-        <v>412.131313131313</v>
+        <v>337.6833333333332</v>
       </c>
       <c r="O31" t="n">
-        <v>329.7050505050504</v>
+        <v>270.1466666666666</v>
       </c>
       <c r="P31" t="n">
-        <v>247.2787878787878</v>
+        <v>202.6099999999999</v>
       </c>
       <c r="Q31" t="n">
-        <v>247.2787878787878</v>
+        <v>202.6099999999999</v>
       </c>
       <c r="R31" t="n">
-        <v>247.2787878787878</v>
+        <v>202.6099999999999</v>
       </c>
       <c r="S31" t="n">
-        <v>412.131313131313</v>
+        <v>337.6833333333332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6510</v>
+        <v>6508</v>
       </c>
       <c r="B32" t="n">
-        <v>715.87</v>
+        <v>1914.4</v>
       </c>
       <c r="C32" t="n">
-        <v>3085.419999999999</v>
+        <v>8160.199999999998</v>
       </c>
       <c r="D32" t="n">
-        <v>280.4927272727272</v>
+        <v>741.8363636363633</v>
       </c>
       <c r="E32" t="n">
-        <v>280.4927272727272</v>
+        <v>741.8363636363633</v>
       </c>
       <c r="F32" t="n">
-        <v>280.4927272727272</v>
+        <v>741.8363636363633</v>
       </c>
       <c r="G32" t="n">
-        <v>249.3268686868686</v>
+        <v>659.4101010101008</v>
       </c>
       <c r="H32" t="n">
-        <v>218.16101010101</v>
+        <v>576.9838383838382</v>
       </c>
       <c r="I32" t="n">
-        <v>218.16101010101</v>
+        <v>576.9838383838382</v>
       </c>
       <c r="J32" t="n">
-        <v>186.9951515151515</v>
+        <v>494.5575757575756</v>
       </c>
       <c r="K32" t="n">
-        <v>186.9951515151515</v>
+        <v>494.5575757575756</v>
       </c>
       <c r="L32" t="n">
-        <v>186.9951515151515</v>
+        <v>494.5575757575756</v>
       </c>
       <c r="M32" t="n">
-        <v>280.4927272727272</v>
+        <v>741.8363636363633</v>
       </c>
       <c r="N32" t="n">
-        <v>155.8292929292929</v>
+        <v>412.131313131313</v>
       </c>
       <c r="O32" t="n">
-        <v>124.6634343434343</v>
+        <v>329.7050505050504</v>
       </c>
       <c r="P32" t="n">
-        <v>93.49757575757573</v>
+        <v>247.2787878787878</v>
       </c>
       <c r="Q32" t="n">
-        <v>93.49757575757573</v>
+        <v>247.2787878787878</v>
       </c>
       <c r="R32" t="n">
-        <v>93.49757575757573</v>
+        <v>247.2787878787878</v>
       </c>
       <c r="S32" t="n">
-        <v>155.8292929292929</v>
+        <v>412.131313131313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6509</v>
+        <v>6510</v>
       </c>
       <c r="B33" t="n">
-        <v>1340.89</v>
+        <v>715.87</v>
       </c>
       <c r="C33" t="n">
-        <v>5688.519999999998</v>
+        <v>3085.419999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>517.1381818181816</v>
+        <v>280.4927272727272</v>
       </c>
       <c r="E33" t="n">
-        <v>517.1381818181816</v>
+        <v>280.4927272727272</v>
       </c>
       <c r="F33" t="n">
-        <v>517.1381818181816</v>
+        <v>280.4927272727272</v>
       </c>
       <c r="G33" t="n">
-        <v>459.6783838383838</v>
+        <v>249.3268686868686</v>
       </c>
       <c r="H33" t="n">
-        <v>402.2185858585858</v>
+        <v>218.16101010101</v>
       </c>
       <c r="I33" t="n">
-        <v>402.2185858585858</v>
+        <v>218.16101010101</v>
       </c>
       <c r="J33" t="n">
-        <v>344.7587878787878</v>
+        <v>186.9951515151515</v>
       </c>
       <c r="K33" t="n">
-        <v>344.7587878787878</v>
+        <v>186.9951515151515</v>
       </c>
       <c r="L33" t="n">
-        <v>344.7587878787878</v>
+        <v>186.9951515151515</v>
       </c>
       <c r="M33" t="n">
-        <v>517.1381818181816</v>
+        <v>280.4927272727272</v>
       </c>
       <c r="N33" t="n">
-        <v>287.2989898989898</v>
+        <v>155.8292929292929</v>
       </c>
       <c r="O33" t="n">
-        <v>229.8391919191919</v>
+        <v>124.6634343434343</v>
       </c>
       <c r="P33" t="n">
-        <v>172.3793939393939</v>
+        <v>93.49757575757573</v>
       </c>
       <c r="Q33" t="n">
-        <v>172.3793939393939</v>
+        <v>93.49757575757573</v>
       </c>
       <c r="R33" t="n">
-        <v>172.3793939393939</v>
+        <v>93.49757575757573</v>
       </c>
       <c r="S33" t="n">
-        <v>287.2989898989898</v>
+        <v>155.8292929292929</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6403</v>
+        <v>6509</v>
       </c>
       <c r="B34" t="n">
-        <v>2166.96</v>
+        <v>1340.89</v>
       </c>
       <c r="C34" t="n">
-        <v>9751.309999999996</v>
+        <v>5688.519999999998</v>
       </c>
       <c r="D34" t="n">
-        <v>895.5284693877547</v>
+        <v>517.1381818181816</v>
       </c>
       <c r="E34" t="n">
-        <v>895.5284693877547</v>
+        <v>517.1381818181816</v>
       </c>
       <c r="F34" t="n">
-        <v>895.5284693877547</v>
+        <v>517.1381818181816</v>
       </c>
       <c r="G34" t="n">
-        <v>796.0253061224487</v>
+        <v>459.6783838383838</v>
       </c>
       <c r="H34" t="n">
-        <v>696.5221428571426</v>
+        <v>402.2185858585858</v>
       </c>
       <c r="I34" t="n">
-        <v>696.5221428571426</v>
+        <v>402.2185858585858</v>
       </c>
       <c r="J34" t="n">
-        <v>597.0189795918365</v>
+        <v>344.7587878787878</v>
       </c>
       <c r="K34" t="n">
-        <v>597.0189795918365</v>
+        <v>344.7587878787878</v>
       </c>
       <c r="L34" t="n">
-        <v>597.0189795918365</v>
+        <v>344.7587878787878</v>
       </c>
       <c r="M34" t="n">
-        <v>895.5284693877547</v>
+        <v>517.1381818181816</v>
       </c>
       <c r="N34" t="n">
-        <v>497.5158163265305</v>
+        <v>287.2989898989898</v>
       </c>
       <c r="O34" t="n">
-        <v>398.0126530612243</v>
+        <v>229.8391919191919</v>
       </c>
       <c r="P34" t="n">
-        <v>298.5094897959182</v>
+        <v>172.3793939393939</v>
       </c>
       <c r="Q34" t="n">
-        <v>298.5094897959182</v>
+        <v>172.3793939393939</v>
       </c>
       <c r="R34" t="n">
-        <v>298.5094897959182</v>
+        <v>172.3793939393939</v>
       </c>
       <c r="S34" t="n">
-        <v>398.0126530612243</v>
+        <v>287.2989898989898</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6511</v>
+        <v>6403</v>
       </c>
       <c r="B35" t="n">
-        <v>414.86</v>
+        <v>2166.96</v>
       </c>
       <c r="C35" t="n">
-        <v>1866.89</v>
+        <v>9751.309999999996</v>
       </c>
       <c r="D35" t="n">
-        <v>171.449081632653</v>
+        <v>895.5284693877547</v>
       </c>
       <c r="E35" t="n">
-        <v>171.449081632653</v>
+        <v>895.5284693877547</v>
       </c>
       <c r="F35" t="n">
-        <v>171.449081632653</v>
+        <v>895.5284693877547</v>
       </c>
       <c r="G35" t="n">
-        <v>152.3991836734694</v>
+        <v>796.0253061224487</v>
       </c>
       <c r="H35" t="n">
-        <v>133.3492857142857</v>
+        <v>696.5221428571426</v>
       </c>
       <c r="I35" t="n">
-        <v>133.3492857142857</v>
+        <v>696.5221428571426</v>
       </c>
       <c r="J35" t="n">
-        <v>114.299387755102</v>
+        <v>597.0189795918365</v>
       </c>
       <c r="K35" t="n">
-        <v>114.299387755102</v>
+        <v>597.0189795918365</v>
       </c>
       <c r="L35" t="n">
-        <v>114.299387755102</v>
+        <v>597.0189795918365</v>
       </c>
       <c r="M35" t="n">
-        <v>171.449081632653</v>
+        <v>895.5284693877547</v>
       </c>
       <c r="N35" t="n">
-        <v>95.24948979591835</v>
+        <v>497.5158163265305</v>
       </c>
       <c r="O35" t="n">
-        <v>76.19959183673468</v>
+        <v>398.0126530612243</v>
       </c>
       <c r="P35" t="n">
-        <v>57.149693877551</v>
+        <v>298.5094897959182</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.149693877551</v>
+        <v>298.5094897959182</v>
       </c>
       <c r="R35" t="n">
-        <v>57.149693877551</v>
+        <v>298.5094897959182</v>
       </c>
       <c r="S35" t="n">
-        <v>76.19959183673468</v>
+        <v>398.0126530612243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1207</v>
+        <v>6511</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>414.86</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+        <v>1866.89</v>
+      </c>
+      <c r="D36" t="n">
+        <v>171.449081632653</v>
+      </c>
+      <c r="E36" t="n">
+        <v>171.449081632653</v>
+      </c>
+      <c r="F36" t="n">
+        <v>171.449081632653</v>
+      </c>
+      <c r="G36" t="n">
+        <v>152.3991836734694</v>
+      </c>
+      <c r="H36" t="n">
+        <v>133.3492857142857</v>
+      </c>
+      <c r="I36" t="n">
+        <v>133.3492857142857</v>
+      </c>
+      <c r="J36" t="n">
+        <v>114.299387755102</v>
+      </c>
+      <c r="K36" t="n">
+        <v>114.299387755102</v>
+      </c>
+      <c r="L36" t="n">
+        <v>114.299387755102</v>
+      </c>
+      <c r="M36" t="n">
+        <v>171.449081632653</v>
+      </c>
+      <c r="N36" t="n">
+        <v>95.24948979591835</v>
+      </c>
+      <c r="O36" t="n">
+        <v>76.19959183673468</v>
+      </c>
+      <c r="P36" t="n">
+        <v>57.149693877551</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>57.149693877551</v>
+      </c>
+      <c r="R36" t="n">
+        <v>57.149693877551</v>
+      </c>
+      <c r="S36" t="n">
+        <v>76.19959183673468</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B37" t="n">
-        <v>29.16</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>131.22</v>
-      </c>
-      <c r="D37" t="n">
-        <v>11.69287128712871</v>
-      </c>
-      <c r="E37" t="n">
-        <v>11.69287128712871</v>
-      </c>
-      <c r="F37" t="n">
-        <v>10.39366336633663</v>
-      </c>
-      <c r="G37" t="n">
-        <v>10.39366336633663</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9.094455445544554</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9.094455445544554</v>
-      </c>
-      <c r="J37" t="n">
-        <v>7.795247524752473</v>
-      </c>
-      <c r="K37" t="n">
-        <v>7.795247524752473</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7.795247524752473</v>
-      </c>
-      <c r="M37" t="n">
-        <v>11.69287128712871</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7.795247524752473</v>
-      </c>
-      <c r="O37" t="n">
-        <v>6.496039603960394</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.196831683168316</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3.897623762376237</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3.897623762376237</v>
-      </c>
-      <c r="S37" t="n">
-        <v>6.496039603960394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1301</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1043.34</v>
-      </c>
+        <v>1305</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>4695.039999999999</v>
-      </c>
-      <c r="D38" t="n">
-        <v>418.3699009900989</v>
-      </c>
-      <c r="E38" t="n">
-        <v>418.3699009900989</v>
-      </c>
-      <c r="F38" t="n">
-        <v>371.8843564356435</v>
-      </c>
-      <c r="G38" t="n">
-        <v>371.8843564356435</v>
-      </c>
-      <c r="H38" t="n">
-        <v>325.3988118811881</v>
-      </c>
-      <c r="I38" t="n">
-        <v>325.3988118811881</v>
-      </c>
-      <c r="J38" t="n">
-        <v>278.9132673267326</v>
-      </c>
-      <c r="K38" t="n">
-        <v>278.9132673267326</v>
-      </c>
-      <c r="L38" t="n">
-        <v>278.9132673267326</v>
-      </c>
-      <c r="M38" t="n">
-        <v>418.3699009900989</v>
-      </c>
-      <c r="N38" t="n">
-        <v>278.9132673267326</v>
-      </c>
-      <c r="O38" t="n">
-        <v>232.4277227722772</v>
-      </c>
-      <c r="P38" t="n">
-        <v>185.9421782178217</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>139.4566336633663</v>
-      </c>
-      <c r="R38" t="n">
-        <v>139.4566336633663</v>
-      </c>
-      <c r="S38" t="n">
-        <v>232.4277227722772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B39" t="n">
-        <v>929.62</v>
+        <v>1043.34</v>
       </c>
       <c r="C39" t="n">
-        <v>4183.279999999999</v>
+        <v>4695.039999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>372.7675247524751</v>
+        <v>418.3699009900989</v>
       </c>
       <c r="E39" t="n">
-        <v>372.7675247524751</v>
+        <v>418.3699009900989</v>
       </c>
       <c r="F39" t="n">
-        <v>331.348910891089</v>
+        <v>371.8843564356435</v>
       </c>
       <c r="G39" t="n">
-        <v>331.348910891089</v>
+        <v>371.8843564356435</v>
       </c>
       <c r="H39" t="n">
-        <v>289.9302970297029</v>
+        <v>325.3988118811881</v>
       </c>
       <c r="I39" t="n">
-        <v>289.9302970297029</v>
+        <v>325.3988118811881</v>
       </c>
       <c r="J39" t="n">
-        <v>248.5116831683168</v>
+        <v>278.9132673267326</v>
       </c>
       <c r="K39" t="n">
-        <v>248.5116831683168</v>
+        <v>278.9132673267326</v>
       </c>
       <c r="L39" t="n">
-        <v>248.5116831683168</v>
+        <v>278.9132673267326</v>
       </c>
       <c r="M39" t="n">
-        <v>372.7675247524751</v>
+        <v>418.3699009900989</v>
       </c>
       <c r="N39" t="n">
-        <v>248.5116831683168</v>
+        <v>278.9132673267326</v>
       </c>
       <c r="O39" t="n">
-        <v>207.0930693069306</v>
+        <v>232.4277227722772</v>
       </c>
       <c r="P39" t="n">
-        <v>165.6744554455445</v>
+        <v>185.9421782178217</v>
       </c>
       <c r="Q39" t="n">
-        <v>124.2558415841584</v>
+        <v>139.4566336633663</v>
       </c>
       <c r="R39" t="n">
-        <v>124.2558415841584</v>
+        <v>139.4566336633663</v>
       </c>
       <c r="S39" t="n">
-        <v>207.0930693069306</v>
+        <v>232.4277227722772</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>208</v>
+        <v>1302</v>
       </c>
       <c r="B40" t="n">
-        <v>144.94</v>
+        <v>929.62</v>
       </c>
       <c r="C40" t="n">
-        <v>676.04</v>
+        <v>4183.279999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>54.62949494949494</v>
+        <v>372.7675247524751</v>
       </c>
       <c r="E40" t="n">
-        <v>54.62949494949494</v>
+        <v>372.7675247524751</v>
       </c>
       <c r="F40" t="n">
-        <v>54.62949494949494</v>
+        <v>331.348910891089</v>
       </c>
       <c r="G40" t="n">
-        <v>47.80080808080807</v>
+        <v>331.348910891089</v>
       </c>
       <c r="H40" t="n">
-        <v>40.97212121212121</v>
+        <v>289.9302970297029</v>
       </c>
       <c r="I40" t="n">
-        <v>40.97212121212121</v>
+        <v>289.9302970297029</v>
       </c>
       <c r="J40" t="n">
-        <v>34.14343434343434</v>
+        <v>248.5116831683168</v>
       </c>
       <c r="K40" t="n">
-        <v>40.97212121212121</v>
+        <v>248.5116831683168</v>
       </c>
       <c r="L40" t="n">
-        <v>34.14343434343434</v>
+        <v>248.5116831683168</v>
       </c>
       <c r="M40" t="n">
-        <v>54.62949494949494</v>
+        <v>372.7675247524751</v>
       </c>
       <c r="N40" t="n">
-        <v>40.97212121212121</v>
+        <v>248.5116831683168</v>
       </c>
       <c r="O40" t="n">
-        <v>40.97212121212121</v>
+        <v>207.0930693069306</v>
       </c>
       <c r="P40" t="n">
-        <v>27.31474747474747</v>
+        <v>165.6744554455445</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.31474747474747</v>
+        <v>124.2558415841584</v>
       </c>
       <c r="R40" t="n">
-        <v>27.31474747474747</v>
+        <v>124.2558415841584</v>
       </c>
       <c r="S40" t="n">
-        <v>54.62949494949494</v>
+        <v>207.0930693069306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" t="n">
-        <v>247.77</v>
+        <v>144.94</v>
       </c>
       <c r="C41" t="n">
-        <v>1146.08</v>
+        <v>676.04</v>
       </c>
       <c r="D41" t="n">
-        <v>92.61252525252524</v>
+        <v>54.62949494949494</v>
       </c>
       <c r="E41" t="n">
-        <v>92.61252525252524</v>
+        <v>54.62949494949494</v>
       </c>
       <c r="F41" t="n">
-        <v>92.61252525252524</v>
+        <v>54.62949494949494</v>
       </c>
       <c r="G41" t="n">
-        <v>81.03595959595958</v>
+        <v>47.80080808080807</v>
       </c>
       <c r="H41" t="n">
-        <v>69.45939393939393</v>
+        <v>40.97212121212121</v>
       </c>
       <c r="I41" t="n">
-        <v>69.45939393939393</v>
+        <v>40.97212121212121</v>
       </c>
       <c r="J41" t="n">
-        <v>57.88282828282828</v>
+        <v>34.14343434343434</v>
       </c>
       <c r="K41" t="n">
-        <v>69.45939393939393</v>
+        <v>40.97212121212121</v>
       </c>
       <c r="L41" t="n">
-        <v>57.88282828282828</v>
+        <v>34.14343434343434</v>
       </c>
       <c r="M41" t="n">
-        <v>92.61252525252524</v>
+        <v>54.62949494949494</v>
       </c>
       <c r="N41" t="n">
-        <v>69.45939393939393</v>
+        <v>40.97212121212121</v>
       </c>
       <c r="O41" t="n">
-        <v>69.45939393939393</v>
+        <v>40.97212121212121</v>
       </c>
       <c r="P41" t="n">
-        <v>46.30626262626262</v>
+        <v>27.31474747474747</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.30626262626262</v>
+        <v>27.31474747474747</v>
       </c>
       <c r="R41" t="n">
-        <v>46.30626262626262</v>
+        <v>27.31474747474747</v>
       </c>
       <c r="S41" t="n">
-        <v>92.61252525252524</v>
+        <v>54.62949494949494</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2401</v>
+        <v>207</v>
       </c>
       <c r="B42" t="n">
-        <v>2324.22</v>
+        <v>247.77</v>
       </c>
       <c r="C42" t="n">
-        <v>11641.1</v>
+        <v>1146.08</v>
       </c>
       <c r="D42" t="n">
-        <v>1152.584158415841</v>
+        <v>92.61252525252524</v>
       </c>
       <c r="E42" t="n">
-        <v>1152.584158415841</v>
+        <v>92.61252525252524</v>
       </c>
       <c r="F42" t="n">
-        <v>1152.584158415841</v>
+        <v>92.61252525252524</v>
       </c>
       <c r="G42" t="n">
-        <v>1037.325742574257</v>
+        <v>81.03595959595958</v>
       </c>
       <c r="H42" t="n">
-        <v>922.0673267326731</v>
+        <v>69.45939393939393</v>
       </c>
       <c r="I42" t="n">
-        <v>806.808910891089</v>
+        <v>69.45939393939393</v>
       </c>
       <c r="J42" t="n">
-        <v>691.5504950495048</v>
+        <v>57.88282828282828</v>
       </c>
       <c r="K42" t="n">
-        <v>691.5504950495048</v>
+        <v>69.45939393939393</v>
       </c>
       <c r="L42" t="n">
-        <v>691.5504950495048</v>
+        <v>57.88282828282828</v>
       </c>
       <c r="M42" t="n">
-        <v>1152.584158415841</v>
+        <v>92.61252525252524</v>
       </c>
       <c r="N42" t="n">
-        <v>576.2920792079207</v>
+        <v>69.45939393939393</v>
       </c>
       <c r="O42" t="n">
-        <v>345.7752475247524</v>
+        <v>69.45939393939393</v>
       </c>
       <c r="P42" t="n">
-        <v>345.7752475247524</v>
+        <v>46.30626262626262</v>
       </c>
       <c r="Q42" t="n">
-        <v>345.7752475247524</v>
+        <v>46.30626262626262</v>
       </c>
       <c r="R42" t="n">
-        <v>230.5168316831683</v>
+        <v>46.30626262626262</v>
       </c>
       <c r="S42" t="n">
-        <v>345.7752475247524</v>
+        <v>92.61252525252524</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>203</v>
+        <v>2401</v>
       </c>
       <c r="B43" t="n">
-        <v>566.47</v>
+        <v>2324.22</v>
       </c>
       <c r="C43" t="n">
-        <v>2639.17</v>
+        <v>11641.1</v>
       </c>
       <c r="D43" t="n">
-        <v>213.2662626262626</v>
+        <v>1152.584158415841</v>
       </c>
       <c r="E43" t="n">
-        <v>213.2662626262626</v>
+        <v>1152.584158415841</v>
       </c>
       <c r="F43" t="n">
-        <v>213.2662626262626</v>
+        <v>1152.584158415841</v>
       </c>
       <c r="G43" t="n">
-        <v>186.6079797979798</v>
+        <v>1037.325742574257</v>
       </c>
       <c r="H43" t="n">
-        <v>159.949696969697</v>
+        <v>922.0673267326731</v>
       </c>
       <c r="I43" t="n">
-        <v>159.949696969697</v>
+        <v>806.808910891089</v>
       </c>
       <c r="J43" t="n">
-        <v>133.2914141414142</v>
+        <v>691.5504950495048</v>
       </c>
       <c r="K43" t="n">
-        <v>159.949696969697</v>
+        <v>691.5504950495048</v>
       </c>
       <c r="L43" t="n">
-        <v>133.2914141414142</v>
+        <v>691.5504950495048</v>
       </c>
       <c r="M43" t="n">
-        <v>213.2662626262626</v>
+        <v>1152.584158415841</v>
       </c>
       <c r="N43" t="n">
-        <v>159.949696969697</v>
+        <v>576.2920792079207</v>
       </c>
       <c r="O43" t="n">
-        <v>159.949696969697</v>
+        <v>345.7752475247524</v>
       </c>
       <c r="P43" t="n">
-        <v>106.6331313131313</v>
+        <v>345.7752475247524</v>
       </c>
       <c r="Q43" t="n">
-        <v>106.6331313131313</v>
+        <v>345.7752475247524</v>
       </c>
       <c r="R43" t="n">
-        <v>106.6331313131313</v>
+        <v>230.5168316831683</v>
       </c>
       <c r="S43" t="n">
-        <v>213.2662626262626</v>
+        <v>345.7752475247524</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" t="n">
-        <v>613.34</v>
+        <v>566.47</v>
       </c>
       <c r="C44" t="n">
-        <v>2868.53</v>
+        <v>2639.17</v>
       </c>
       <c r="D44" t="n">
-        <v>231.800404040404</v>
+        <v>213.2662626262626</v>
       </c>
       <c r="E44" t="n">
-        <v>231.800404040404</v>
+        <v>213.2662626262626</v>
       </c>
       <c r="F44" t="n">
-        <v>231.800404040404</v>
+        <v>213.2662626262626</v>
       </c>
       <c r="G44" t="n">
-        <v>202.8253535353535</v>
+        <v>186.6079797979798</v>
       </c>
       <c r="H44" t="n">
-        <v>173.850303030303</v>
+        <v>159.949696969697</v>
       </c>
       <c r="I44" t="n">
-        <v>173.850303030303</v>
+        <v>159.949696969697</v>
       </c>
       <c r="J44" t="n">
-        <v>144.8752525252525</v>
+        <v>133.2914141414142</v>
       </c>
       <c r="K44" t="n">
-        <v>173.850303030303</v>
+        <v>159.949696969697</v>
       </c>
       <c r="L44" t="n">
-        <v>144.8752525252525</v>
+        <v>133.2914141414142</v>
       </c>
       <c r="M44" t="n">
-        <v>231.800404040404</v>
+        <v>213.2662626262626</v>
       </c>
       <c r="N44" t="n">
-        <v>173.850303030303</v>
+        <v>159.949696969697</v>
       </c>
       <c r="O44" t="n">
-        <v>173.850303030303</v>
+        <v>159.949696969697</v>
       </c>
       <c r="P44" t="n">
-        <v>115.900202020202</v>
+        <v>106.6331313131313</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.900202020202</v>
+        <v>106.6331313131313</v>
       </c>
       <c r="R44" t="n">
-        <v>115.900202020202</v>
+        <v>106.6331313131313</v>
       </c>
       <c r="S44" t="n">
-        <v>231.800404040404</v>
+        <v>213.2662626262626</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6609</v>
+        <v>204</v>
       </c>
       <c r="B45" t="n">
-        <v>1796.58</v>
+        <v>613.34</v>
       </c>
       <c r="C45" t="n">
-        <v>7620.659999999998</v>
+        <v>2868.53</v>
       </c>
       <c r="D45" t="n">
-        <v>692.7872727272725</v>
+        <v>231.800404040404</v>
       </c>
       <c r="E45" t="n">
-        <v>692.7872727272725</v>
+        <v>231.800404040404</v>
       </c>
       <c r="F45" t="n">
-        <v>692.7872727272725</v>
+        <v>231.800404040404</v>
       </c>
       <c r="G45" t="n">
-        <v>615.8109090909089</v>
+        <v>202.8253535353535</v>
       </c>
       <c r="H45" t="n">
-        <v>538.8345454545453</v>
+        <v>173.850303030303</v>
       </c>
       <c r="I45" t="n">
-        <v>538.8345454545453</v>
+        <v>173.850303030303</v>
       </c>
       <c r="J45" t="n">
-        <v>461.8581818181817</v>
+        <v>144.8752525252525</v>
       </c>
       <c r="K45" t="n">
-        <v>461.8581818181817</v>
+        <v>173.850303030303</v>
       </c>
       <c r="L45" t="n">
-        <v>461.8581818181817</v>
+        <v>144.8752525252525</v>
       </c>
       <c r="M45" t="n">
-        <v>692.7872727272725</v>
+        <v>231.800404040404</v>
       </c>
       <c r="N45" t="n">
-        <v>384.8818181818181</v>
+        <v>173.850303030303</v>
       </c>
       <c r="O45" t="n">
-        <v>307.9054545454545</v>
+        <v>173.850303030303</v>
       </c>
       <c r="P45" t="n">
-        <v>230.9290909090908</v>
+        <v>115.900202020202</v>
       </c>
       <c r="Q45" t="n">
-        <v>230.9290909090908</v>
+        <v>115.900202020202</v>
       </c>
       <c r="R45" t="n">
-        <v>230.9290909090908</v>
+        <v>115.900202020202</v>
       </c>
       <c r="S45" t="n">
-        <v>384.8818181818181</v>
+        <v>231.800404040404</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6601</v>
+        <v>6609</v>
       </c>
       <c r="B46" t="n">
-        <v>1095.57</v>
+        <v>1796.58</v>
       </c>
       <c r="C46" t="n">
-        <v>4569.499999999998</v>
+        <v>7620.659999999998</v>
       </c>
       <c r="D46" t="n">
-        <v>415.4090909090907</v>
+        <v>692.7872727272725</v>
       </c>
       <c r="E46" t="n">
-        <v>415.4090909090907</v>
+        <v>692.7872727272725</v>
       </c>
       <c r="F46" t="n">
-        <v>415.4090909090907</v>
+        <v>692.7872727272725</v>
       </c>
       <c r="G46" t="n">
-        <v>369.2525252525252</v>
+        <v>615.8109090909089</v>
       </c>
       <c r="H46" t="n">
-        <v>323.0959595959595</v>
+        <v>538.8345454545453</v>
       </c>
       <c r="I46" t="n">
-        <v>323.0959595959595</v>
+        <v>538.8345454545453</v>
       </c>
       <c r="J46" t="n">
-        <v>276.9393939393938</v>
+        <v>461.8581818181817</v>
       </c>
       <c r="K46" t="n">
-        <v>276.9393939393938</v>
+        <v>461.8581818181817</v>
       </c>
       <c r="L46" t="n">
-        <v>276.9393939393938</v>
+        <v>461.8581818181817</v>
       </c>
       <c r="M46" t="n">
-        <v>415.4090909090907</v>
+        <v>692.7872727272725</v>
       </c>
       <c r="N46" t="n">
-        <v>230.7828282828282</v>
+        <v>384.8818181818181</v>
       </c>
       <c r="O46" t="n">
-        <v>184.6262626262626</v>
+        <v>307.9054545454545</v>
       </c>
       <c r="P46" t="n">
-        <v>138.4696969696969</v>
+        <v>230.9290909090908</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4696969696969</v>
+        <v>230.9290909090908</v>
       </c>
       <c r="R46" t="n">
-        <v>138.4696969696969</v>
+        <v>230.9290909090908</v>
       </c>
       <c r="S46" t="n">
-        <v>230.7828282828282</v>
+        <v>384.8818181818181</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6506</v>
+        <v>6601</v>
       </c>
       <c r="B47" t="n">
-        <v>1653.4</v>
+        <v>1095.57</v>
       </c>
       <c r="C47" t="n">
-        <v>7440.289999999997</v>
+        <v>4569.499999999998</v>
       </c>
       <c r="D47" t="n">
-        <v>683.2919387755099</v>
+        <v>415.4090909090907</v>
       </c>
       <c r="E47" t="n">
-        <v>683.2919387755099</v>
+        <v>415.4090909090907</v>
       </c>
       <c r="F47" t="n">
-        <v>683.2919387755099</v>
+        <v>415.4090909090907</v>
       </c>
       <c r="G47" t="n">
-        <v>607.3706122448978</v>
+        <v>369.2525252525252</v>
       </c>
       <c r="H47" t="n">
-        <v>531.4492857142856</v>
+        <v>323.0959595959595</v>
       </c>
       <c r="I47" t="n">
-        <v>531.4492857142856</v>
+        <v>323.0959595959595</v>
       </c>
       <c r="J47" t="n">
-        <v>455.5279591836733</v>
+        <v>276.9393939393938</v>
       </c>
       <c r="K47" t="n">
-        <v>455.5279591836733</v>
+        <v>276.9393939393938</v>
       </c>
       <c r="L47" t="n">
-        <v>455.5279591836733</v>
+        <v>276.9393939393938</v>
       </c>
       <c r="M47" t="n">
-        <v>683.2919387755099</v>
+        <v>415.4090909090907</v>
       </c>
       <c r="N47" t="n">
-        <v>379.6066326530611</v>
+        <v>230.7828282828282</v>
       </c>
       <c r="O47" t="n">
-        <v>303.6853061224489</v>
+        <v>184.6262626262626</v>
       </c>
       <c r="P47" t="n">
-        <v>227.7639795918367</v>
+        <v>138.4696969696969</v>
       </c>
       <c r="Q47" t="n">
-        <v>227.7639795918367</v>
+        <v>138.4696969696969</v>
       </c>
       <c r="R47" t="n">
-        <v>227.7639795918367</v>
+        <v>138.4696969696969</v>
       </c>
       <c r="S47" t="n">
-        <v>303.6853061224489</v>
+        <v>230.7828282828282</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6801</v>
+        <v>6506</v>
       </c>
       <c r="B48" t="n">
-        <v>8864.77</v>
+        <v>1653.4</v>
       </c>
       <c r="C48" t="n">
-        <v>45197.55999999998</v>
+        <v>7440.289999999997</v>
       </c>
       <c r="D48" t="n">
-        <v>4565.410101010099</v>
+        <v>683.2919387755099</v>
       </c>
       <c r="E48" t="n">
-        <v>4565.410101010099</v>
+        <v>683.2919387755099</v>
       </c>
       <c r="F48" t="n">
-        <v>4108.869090909089</v>
+        <v>683.2919387755099</v>
       </c>
       <c r="G48" t="n">
-        <v>3652.328080808079</v>
+        <v>607.3706122448978</v>
       </c>
       <c r="H48" t="n">
-        <v>3652.328080808079</v>
+        <v>531.4492857142856</v>
       </c>
       <c r="I48" t="n">
-        <v>3195.78707070707</v>
+        <v>531.4492857142856</v>
       </c>
       <c r="J48" t="n">
-        <v>3195.78707070707</v>
+        <v>455.5279591836733</v>
       </c>
       <c r="K48" t="n">
-        <v>2739.246060606059</v>
+        <v>455.5279591836733</v>
       </c>
       <c r="L48" t="n">
-        <v>2282.70505050505</v>
+        <v>455.5279591836733</v>
       </c>
       <c r="M48" t="n">
-        <v>4565.410101010099</v>
+        <v>683.2919387755099</v>
       </c>
       <c r="N48" t="n">
-        <v>1826.16404040404</v>
+        <v>379.6066326530611</v>
       </c>
       <c r="O48" t="n">
-        <v>1369.62303030303</v>
+        <v>303.6853061224489</v>
       </c>
       <c r="P48" t="n">
-        <v>1369.62303030303</v>
+        <v>227.7639795918367</v>
       </c>
       <c r="Q48" t="n">
-        <v>1369.62303030303</v>
+        <v>227.7639795918367</v>
       </c>
       <c r="R48" t="n">
-        <v>913.0820202020199</v>
+        <v>227.7639795918367</v>
       </c>
       <c r="S48" t="n">
-        <v>1826.16404040404</v>
+        <v>303.6853061224489</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1101</v>
+        <v>6801</v>
       </c>
       <c r="B49" t="n">
-        <v>2293.45</v>
+        <v>8864.77</v>
       </c>
       <c r="C49" t="n">
-        <v>9471.899999999998</v>
+        <v>45197.55999999998</v>
       </c>
       <c r="D49" t="n">
-        <v>928.6176470588233</v>
+        <v>4565.410101010099</v>
       </c>
       <c r="E49" t="n">
-        <v>928.6176470588233</v>
+        <v>4565.410101010099</v>
       </c>
       <c r="F49" t="n">
-        <v>928.6176470588233</v>
+        <v>4108.869090909089</v>
       </c>
       <c r="G49" t="n">
-        <v>835.7558823529409</v>
+        <v>3652.328080808079</v>
       </c>
       <c r="H49" t="n">
-        <v>742.8941176470587</v>
+        <v>3652.328080808079</v>
       </c>
       <c r="I49" t="n">
-        <v>650.0323529411763</v>
+        <v>3195.78707070707</v>
       </c>
       <c r="J49" t="n">
-        <v>557.170588235294</v>
+        <v>3195.78707070707</v>
       </c>
       <c r="K49" t="n">
-        <v>650.0323529411763</v>
+        <v>2739.246060606059</v>
       </c>
       <c r="L49" t="n">
-        <v>557.170588235294</v>
+        <v>2282.70505050505</v>
       </c>
       <c r="M49" t="n">
-        <v>928.6176470588233</v>
+        <v>4565.410101010099</v>
       </c>
       <c r="N49" t="n">
-        <v>464.3088235294117</v>
+        <v>1826.16404040404</v>
       </c>
       <c r="O49" t="n">
-        <v>278.585294117647</v>
+        <v>1369.62303030303</v>
       </c>
       <c r="P49" t="n">
-        <v>278.585294117647</v>
+        <v>1369.62303030303</v>
       </c>
       <c r="Q49" t="n">
-        <v>278.585294117647</v>
+        <v>1369.62303030303</v>
       </c>
       <c r="R49" t="n">
-        <v>185.7235294117647</v>
+        <v>913.0820202020199</v>
       </c>
       <c r="S49" t="n">
-        <v>278.585294117647</v>
+        <v>1826.16404040404</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1104</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1518.01</v>
-      </c>
+        <v>6608</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>6221.069999999998</v>
-      </c>
-      <c r="D50" t="n">
-        <v>609.9088235294116</v>
-      </c>
-      <c r="E50" t="n">
-        <v>609.9088235294116</v>
-      </c>
-      <c r="F50" t="n">
-        <v>609.9088235294116</v>
-      </c>
-      <c r="G50" t="n">
-        <v>548.9179411764704</v>
-      </c>
-      <c r="H50" t="n">
-        <v>487.9270588235293</v>
-      </c>
-      <c r="I50" t="n">
-        <v>426.9361764705882</v>
-      </c>
-      <c r="J50" t="n">
-        <v>365.9452941176469</v>
-      </c>
-      <c r="K50" t="n">
-        <v>426.9361764705882</v>
-      </c>
-      <c r="L50" t="n">
-        <v>365.9452941176469</v>
-      </c>
-      <c r="M50" t="n">
-        <v>609.9088235294116</v>
-      </c>
-      <c r="N50" t="n">
-        <v>304.9544117647058</v>
-      </c>
-      <c r="O50" t="n">
-        <v>182.9726470588235</v>
-      </c>
-      <c r="P50" t="n">
-        <v>182.9726470588235</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>182.9726470588235</v>
-      </c>
-      <c r="R50" t="n">
-        <v>121.9817647058823</v>
-      </c>
-      <c r="S50" t="n">
-        <v>182.9726470588235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B51" t="n">
-        <v>1278.3</v>
+        <v>2293.45</v>
       </c>
       <c r="C51" t="n">
-        <v>5303.559999999999</v>
+        <v>9471.899999999998</v>
       </c>
       <c r="D51" t="n">
-        <v>519.956862745098</v>
+        <v>928.6176470588233</v>
       </c>
       <c r="E51" t="n">
-        <v>519.956862745098</v>
+        <v>928.6176470588233</v>
       </c>
       <c r="F51" t="n">
-        <v>519.956862745098</v>
+        <v>928.6176470588233</v>
       </c>
       <c r="G51" t="n">
-        <v>467.9611764705882</v>
+        <v>835.7558823529409</v>
       </c>
       <c r="H51" t="n">
-        <v>415.9654901960784</v>
+        <v>742.8941176470587</v>
       </c>
       <c r="I51" t="n">
-        <v>363.9698039215686</v>
+        <v>650.0323529411763</v>
       </c>
       <c r="J51" t="n">
-        <v>311.9741176470588</v>
+        <v>557.170588235294</v>
       </c>
       <c r="K51" t="n">
-        <v>363.9698039215686</v>
+        <v>650.0323529411763</v>
       </c>
       <c r="L51" t="n">
-        <v>311.9741176470588</v>
+        <v>557.170588235294</v>
       </c>
       <c r="M51" t="n">
-        <v>519.956862745098</v>
+        <v>928.6176470588233</v>
       </c>
       <c r="N51" t="n">
-        <v>259.978431372549</v>
+        <v>464.3088235294117</v>
       </c>
       <c r="O51" t="n">
-        <v>155.9870588235294</v>
+        <v>278.585294117647</v>
       </c>
       <c r="P51" t="n">
-        <v>155.9870588235294</v>
+        <v>278.585294117647</v>
       </c>
       <c r="Q51" t="n">
-        <v>155.9870588235294</v>
+        <v>278.585294117647</v>
       </c>
       <c r="R51" t="n">
-        <v>103.9913725490196</v>
+        <v>185.7235294117647</v>
       </c>
       <c r="S51" t="n">
-        <v>155.9870588235294</v>
+        <v>278.585294117647</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B52" t="n">
-        <v>1104.54</v>
+        <v>1518.01</v>
       </c>
       <c r="C52" t="n">
-        <v>4641.729999999999</v>
+        <v>6221.069999999998</v>
       </c>
       <c r="D52" t="n">
-        <v>455.0715686274509</v>
+        <v>609.9088235294116</v>
       </c>
       <c r="E52" t="n">
-        <v>455.0715686274509</v>
+        <v>609.9088235294116</v>
       </c>
       <c r="F52" t="n">
-        <v>455.0715686274509</v>
+        <v>609.9088235294116</v>
       </c>
       <c r="G52" t="n">
-        <v>409.5644117647058</v>
+        <v>548.9179411764704</v>
       </c>
       <c r="H52" t="n">
-        <v>364.0572549019607</v>
+        <v>487.9270588235293</v>
       </c>
       <c r="I52" t="n">
-        <v>318.5500980392156</v>
+        <v>426.9361764705882</v>
       </c>
       <c r="J52" t="n">
-        <v>273.0429411764705</v>
+        <v>365.9452941176469</v>
       </c>
       <c r="K52" t="n">
-        <v>318.5500980392156</v>
+        <v>426.9361764705882</v>
       </c>
       <c r="L52" t="n">
-        <v>273.0429411764705</v>
+        <v>365.9452941176469</v>
       </c>
       <c r="M52" t="n">
-        <v>455.0715686274509</v>
+        <v>609.9088235294116</v>
       </c>
       <c r="N52" t="n">
-        <v>227.5357843137254</v>
+        <v>304.9544117647058</v>
       </c>
       <c r="O52" t="n">
-        <v>136.5214705882352</v>
+        <v>182.9726470588235</v>
       </c>
       <c r="P52" t="n">
-        <v>136.5214705882352</v>
+        <v>182.9726470588235</v>
       </c>
       <c r="Q52" t="n">
-        <v>136.5214705882352</v>
+        <v>182.9726470588235</v>
       </c>
       <c r="R52" t="n">
-        <v>91.01431372549017</v>
+        <v>121.9817647058823</v>
       </c>
       <c r="S52" t="n">
-        <v>136.5214705882352</v>
+        <v>182.9726470588235</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1202</v>
+        <v>1103</v>
       </c>
       <c r="B53" t="n">
-        <v>1085.82</v>
+        <v>1278.3</v>
       </c>
       <c r="C53" t="n">
-        <v>4583.749999999999</v>
+        <v>5303.559999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>453.8366336633662</v>
+        <v>519.956862745098</v>
       </c>
       <c r="E53" t="n">
-        <v>408.4529702970296</v>
+        <v>519.956862745098</v>
       </c>
       <c r="F53" t="n">
-        <v>408.4529702970296</v>
+        <v>519.956862745098</v>
       </c>
       <c r="G53" t="n">
-        <v>363.069306930693</v>
+        <v>467.9611764705882</v>
       </c>
       <c r="H53" t="n">
-        <v>317.6856435643564</v>
+        <v>415.9654901960784</v>
       </c>
       <c r="I53" t="n">
-        <v>317.6856435643564</v>
+        <v>363.9698039215686</v>
       </c>
       <c r="J53" t="n">
-        <v>317.6856435643564</v>
+        <v>311.9741176470588</v>
       </c>
       <c r="K53" t="n">
-        <v>317.6856435643564</v>
+        <v>363.9698039215686</v>
       </c>
       <c r="L53" t="n">
-        <v>272.3019801980197</v>
+        <v>311.9741176470588</v>
       </c>
       <c r="M53" t="n">
-        <v>408.4529702970296</v>
+        <v>519.956862745098</v>
       </c>
       <c r="N53" t="n">
-        <v>226.9183168316831</v>
+        <v>259.978431372549</v>
       </c>
       <c r="O53" t="n">
-        <v>181.5346534653465</v>
+        <v>155.9870588235294</v>
       </c>
       <c r="P53" t="n">
-        <v>136.1509900990099</v>
+        <v>155.9870588235294</v>
       </c>
       <c r="Q53" t="n">
-        <v>136.1509900990099</v>
+        <v>155.9870588235294</v>
       </c>
       <c r="R53" t="n">
-        <v>136.1509900990099</v>
+        <v>103.9913725490196</v>
       </c>
       <c r="S53" t="n">
-        <v>181.5346534653465</v>
+        <v>155.9870588235294</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1203</v>
+        <v>1102</v>
       </c>
       <c r="B54" t="n">
-        <v>828.21</v>
+        <v>1104.54</v>
       </c>
       <c r="C54" t="n">
-        <v>3493.77</v>
+        <v>4641.729999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>345.9178217821781</v>
+        <v>455.0715686274509</v>
       </c>
       <c r="E54" t="n">
-        <v>311.3260396039603</v>
+        <v>455.0715686274509</v>
       </c>
       <c r="F54" t="n">
-        <v>311.3260396039603</v>
+        <v>455.0715686274509</v>
       </c>
       <c r="G54" t="n">
-        <v>276.7342574257426</v>
+        <v>409.5644117647058</v>
       </c>
       <c r="H54" t="n">
-        <v>242.1424752475247</v>
+        <v>364.0572549019607</v>
       </c>
       <c r="I54" t="n">
-        <v>242.1424752475247</v>
+        <v>318.5500980392156</v>
       </c>
       <c r="J54" t="n">
-        <v>242.1424752475247</v>
+        <v>273.0429411764705</v>
       </c>
       <c r="K54" t="n">
-        <v>242.1424752475247</v>
+        <v>318.5500980392156</v>
       </c>
       <c r="L54" t="n">
-        <v>207.5506930693069</v>
+        <v>273.0429411764705</v>
       </c>
       <c r="M54" t="n">
-        <v>311.3260396039603</v>
+        <v>455.0715686274509</v>
       </c>
       <c r="N54" t="n">
-        <v>172.9589108910891</v>
+        <v>227.5357843137254</v>
       </c>
       <c r="O54" t="n">
-        <v>138.3671287128713</v>
+        <v>136.5214705882352</v>
       </c>
       <c r="P54" t="n">
-        <v>103.7753465346534</v>
+        <v>136.5214705882352</v>
       </c>
       <c r="Q54" t="n">
-        <v>103.7753465346534</v>
+        <v>136.5214705882352</v>
       </c>
       <c r="R54" t="n">
-        <v>103.7753465346534</v>
+        <v>91.01431372549017</v>
       </c>
       <c r="S54" t="n">
-        <v>138.3671287128713</v>
+        <v>136.5214705882352</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2202</v>
+        <v>1202</v>
       </c>
       <c r="B55" t="n">
-        <v>2201.99</v>
+        <v>1085.82</v>
       </c>
       <c r="C55" t="n">
-        <v>9157.879999999997</v>
+        <v>4583.749999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>906.7207920792076</v>
+        <v>453.8366336633662</v>
       </c>
       <c r="E55" t="n">
-        <v>816.0487128712869</v>
+        <v>408.4529702970296</v>
       </c>
       <c r="F55" t="n">
-        <v>816.0487128712869</v>
+        <v>408.4529702970296</v>
       </c>
       <c r="G55" t="n">
-        <v>725.3766336633662</v>
+        <v>363.069306930693</v>
       </c>
       <c r="H55" t="n">
-        <v>725.3766336633662</v>
+        <v>317.6856435643564</v>
       </c>
       <c r="I55" t="n">
-        <v>634.7045544554454</v>
+        <v>317.6856435643564</v>
       </c>
       <c r="J55" t="n">
-        <v>634.7045544554454</v>
+        <v>317.6856435643564</v>
       </c>
       <c r="K55" t="n">
-        <v>544.0324752475245</v>
+        <v>317.6856435643564</v>
       </c>
       <c r="L55" t="n">
-        <v>544.0324752475245</v>
+        <v>272.3019801980197</v>
       </c>
       <c r="M55" t="n">
-        <v>906.7207920792076</v>
+        <v>408.4529702970296</v>
       </c>
       <c r="N55" t="n">
-        <v>453.3603960396038</v>
+        <v>226.9183168316831</v>
       </c>
       <c r="O55" t="n">
-        <v>362.6883168316831</v>
+        <v>181.5346534653465</v>
       </c>
       <c r="P55" t="n">
-        <v>272.0162376237623</v>
+        <v>136.1509900990099</v>
       </c>
       <c r="Q55" t="n">
-        <v>272.0162376237623</v>
+        <v>136.1509900990099</v>
       </c>
       <c r="R55" t="n">
-        <v>181.3441584158415</v>
+        <v>136.1509900990099</v>
       </c>
       <c r="S55" t="n">
-        <v>362.6883168316831</v>
+        <v>181.5346534653465</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2201</v>
+        <v>1203</v>
       </c>
       <c r="B56" t="n">
-        <v>1857.58</v>
+        <v>828.21</v>
       </c>
       <c r="C56" t="n">
-        <v>7546.939999999998</v>
+        <v>3493.77</v>
       </c>
       <c r="D56" t="n">
-        <v>747.2217821782176</v>
+        <v>345.9178217821781</v>
       </c>
       <c r="E56" t="n">
-        <v>672.4996039603959</v>
+        <v>311.3260396039603</v>
       </c>
       <c r="F56" t="n">
-        <v>672.4996039603959</v>
+        <v>311.3260396039603</v>
       </c>
       <c r="G56" t="n">
-        <v>597.7774257425741</v>
+        <v>276.7342574257426</v>
       </c>
       <c r="H56" t="n">
-        <v>597.7774257425741</v>
+        <v>242.1424752475247</v>
       </c>
       <c r="I56" t="n">
-        <v>523.0552475247524</v>
+        <v>242.1424752475247</v>
       </c>
       <c r="J56" t="n">
-        <v>523.0552475247524</v>
+        <v>242.1424752475247</v>
       </c>
       <c r="K56" t="n">
-        <v>448.3330693069306</v>
+        <v>242.1424752475247</v>
       </c>
       <c r="L56" t="n">
-        <v>448.3330693069306</v>
+        <v>207.5506930693069</v>
       </c>
       <c r="M56" t="n">
-        <v>747.2217821782176</v>
+        <v>311.3260396039603</v>
       </c>
       <c r="N56" t="n">
-        <v>373.6108910891088</v>
+        <v>172.9589108910891</v>
       </c>
       <c r="O56" t="n">
-        <v>298.8887128712871</v>
+        <v>138.3671287128713</v>
       </c>
       <c r="P56" t="n">
-        <v>224.1665346534653</v>
+        <v>103.7753465346534</v>
       </c>
       <c r="Q56" t="n">
-        <v>224.1665346534653</v>
+        <v>103.7753465346534</v>
       </c>
       <c r="R56" t="n">
-        <v>149.4443564356435</v>
+        <v>103.7753465346534</v>
       </c>
       <c r="S56" t="n">
-        <v>298.8887128712871</v>
+        <v>138.3671287128713</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2302</v>
+        <v>2202</v>
       </c>
       <c r="B57" t="n">
-        <v>2284.6</v>
+        <v>2201.99</v>
       </c>
       <c r="C57" t="n">
-        <v>9965.73</v>
+        <v>9157.879999999997</v>
       </c>
       <c r="D57" t="n">
-        <v>986.7059405940591</v>
+        <v>906.7207920792076</v>
       </c>
       <c r="E57" t="n">
-        <v>888.0353465346533</v>
+        <v>816.0487128712869</v>
       </c>
       <c r="F57" t="n">
-        <v>888.0353465346533</v>
+        <v>816.0487128712869</v>
       </c>
       <c r="G57" t="n">
-        <v>888.0353465346533</v>
+        <v>725.3766336633662</v>
       </c>
       <c r="H57" t="n">
-        <v>789.3647524752473</v>
+        <v>725.3766336633662</v>
       </c>
       <c r="I57" t="n">
-        <v>690.6941584158415</v>
+        <v>634.7045544554454</v>
       </c>
       <c r="J57" t="n">
-        <v>592.0235643564355</v>
+        <v>634.7045544554454</v>
       </c>
       <c r="K57" t="n">
-        <v>690.6941584158415</v>
+        <v>544.0324752475245</v>
       </c>
       <c r="L57" t="n">
-        <v>592.0235643564355</v>
+        <v>544.0324752475245</v>
       </c>
       <c r="M57" t="n">
-        <v>888.0353465346533</v>
+        <v>906.7207920792076</v>
       </c>
       <c r="N57" t="n">
-        <v>493.3529702970296</v>
+        <v>453.3603960396038</v>
       </c>
       <c r="O57" t="n">
-        <v>394.6823762376237</v>
+        <v>362.6883168316831</v>
       </c>
       <c r="P57" t="n">
-        <v>296.0117821782177</v>
+        <v>272.0162376237623</v>
       </c>
       <c r="Q57" t="n">
-        <v>296.0117821782177</v>
+        <v>272.0162376237623</v>
       </c>
       <c r="R57" t="n">
-        <v>197.3411881188118</v>
+        <v>181.3441584158415</v>
       </c>
       <c r="S57" t="n">
-        <v>394.6823762376237</v>
+        <v>362.6883168316831</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2301</v>
+        <v>2201</v>
       </c>
       <c r="B58" t="n">
-        <v>1893.34</v>
+        <v>1857.58</v>
       </c>
       <c r="C58" t="n">
-        <v>7945.009999999998</v>
+        <v>7546.939999999998</v>
       </c>
       <c r="D58" t="n">
-        <v>786.6346534653463</v>
+        <v>747.2217821782176</v>
       </c>
       <c r="E58" t="n">
-        <v>707.9711881188117</v>
+        <v>672.4996039603959</v>
       </c>
       <c r="F58" t="n">
-        <v>707.9711881188117</v>
+        <v>672.4996039603959</v>
       </c>
       <c r="G58" t="n">
-        <v>707.9711881188117</v>
+        <v>597.7774257425741</v>
       </c>
       <c r="H58" t="n">
-        <v>629.3077227722771</v>
+        <v>597.7774257425741</v>
       </c>
       <c r="I58" t="n">
-        <v>550.6442574257426</v>
+        <v>523.0552475247524</v>
       </c>
       <c r="J58" t="n">
-        <v>471.9807920792078</v>
+        <v>523.0552475247524</v>
       </c>
       <c r="K58" t="n">
-        <v>550.6442574257426</v>
+        <v>448.3330693069306</v>
       </c>
       <c r="L58" t="n">
-        <v>471.9807920792078</v>
+        <v>448.3330693069306</v>
       </c>
       <c r="M58" t="n">
-        <v>707.9711881188117</v>
+        <v>747.2217821782176</v>
       </c>
       <c r="N58" t="n">
-        <v>393.3173267326732</v>
+        <v>373.6108910891088</v>
       </c>
       <c r="O58" t="n">
-        <v>314.6538613861385</v>
+        <v>298.8887128712871</v>
       </c>
       <c r="P58" t="n">
-        <v>235.9903960396039</v>
+        <v>224.1665346534653</v>
       </c>
       <c r="Q58" t="n">
-        <v>235.9903960396039</v>
+        <v>224.1665346534653</v>
       </c>
       <c r="R58" t="n">
-        <v>157.3269306930693</v>
+        <v>149.4443564356435</v>
       </c>
       <c r="S58" t="n">
-        <v>314.6538613861385</v>
+        <v>298.8887128712871</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2102</v>
+        <v>2302</v>
       </c>
       <c r="B59" t="n">
-        <v>2029.68</v>
+        <v>2284.6</v>
       </c>
       <c r="C59" t="n">
-        <v>9133.579999999998</v>
+        <v>9965.73</v>
       </c>
       <c r="D59" t="n">
-        <v>913.3579999999998</v>
+        <v>986.7059405940591</v>
       </c>
       <c r="E59" t="n">
-        <v>822.0221999999999</v>
+        <v>888.0353465346533</v>
       </c>
       <c r="F59" t="n">
-        <v>822.0221999999999</v>
+        <v>888.0353465346533</v>
       </c>
       <c r="G59" t="n">
-        <v>730.6863999999999</v>
+        <v>888.0353465346533</v>
       </c>
       <c r="H59" t="n">
-        <v>730.6863999999999</v>
+        <v>789.3647524752473</v>
       </c>
       <c r="I59" t="n">
-        <v>639.3506</v>
+        <v>690.6941584158415</v>
       </c>
       <c r="J59" t="n">
-        <v>548.0147999999998</v>
+        <v>592.0235643564355</v>
       </c>
       <c r="K59" t="n">
-        <v>639.3506</v>
+        <v>690.6941584158415</v>
       </c>
       <c r="L59" t="n">
-        <v>548.0147999999998</v>
+        <v>592.0235643564355</v>
       </c>
       <c r="M59" t="n">
-        <v>822.0221999999999</v>
+        <v>888.0353465346533</v>
       </c>
       <c r="N59" t="n">
-        <v>456.6789999999999</v>
+        <v>493.3529702970296</v>
       </c>
       <c r="O59" t="n">
-        <v>365.3432</v>
+        <v>394.6823762376237</v>
       </c>
       <c r="P59" t="n">
-        <v>274.0073999999999</v>
+        <v>296.0117821782177</v>
       </c>
       <c r="Q59" t="n">
-        <v>274.0073999999999</v>
+        <v>296.0117821782177</v>
       </c>
       <c r="R59" t="n">
-        <v>182.6716</v>
+        <v>197.3411881188118</v>
       </c>
       <c r="S59" t="n">
-        <v>365.3432</v>
+        <v>394.6823762376237</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2103</v>
+        <v>2301</v>
       </c>
       <c r="B60" t="n">
-        <v>1629.52</v>
+        <v>1893.34</v>
       </c>
       <c r="C60" t="n">
-        <v>7282.219999999999</v>
+        <v>7945.009999999998</v>
       </c>
       <c r="D60" t="n">
-        <v>728.2219999999999</v>
+        <v>786.6346534653463</v>
       </c>
       <c r="E60" t="n">
-        <v>655.3997999999999</v>
+        <v>707.9711881188117</v>
       </c>
       <c r="F60" t="n">
-        <v>655.3997999999999</v>
+        <v>707.9711881188117</v>
       </c>
       <c r="G60" t="n">
-        <v>582.5776</v>
+        <v>707.9711881188117</v>
       </c>
       <c r="H60" t="n">
-        <v>582.5776</v>
+        <v>629.3077227722771</v>
       </c>
       <c r="I60" t="n">
-        <v>509.7554</v>
+        <v>550.6442574257426</v>
       </c>
       <c r="J60" t="n">
-        <v>436.9331999999999</v>
+        <v>471.9807920792078</v>
       </c>
       <c r="K60" t="n">
-        <v>509.7554</v>
+        <v>550.6442574257426</v>
       </c>
       <c r="L60" t="n">
-        <v>436.9331999999999</v>
+        <v>471.9807920792078</v>
       </c>
       <c r="M60" t="n">
-        <v>655.3997999999999</v>
+        <v>707.9711881188117</v>
       </c>
       <c r="N60" t="n">
-        <v>364.1109999999999</v>
+        <v>393.3173267326732</v>
       </c>
       <c r="O60" t="n">
-        <v>291.2888</v>
+        <v>314.6538613861385</v>
       </c>
       <c r="P60" t="n">
-        <v>218.4665999999999</v>
+        <v>235.9903960396039</v>
       </c>
       <c r="Q60" t="n">
-        <v>218.4665999999999</v>
+        <v>235.9903960396039</v>
       </c>
       <c r="R60" t="n">
-        <v>145.6444</v>
+        <v>157.3269306930693</v>
       </c>
       <c r="S60" t="n">
-        <v>291.2888</v>
+        <v>314.6538613861385</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1204</v>
+        <v>2102</v>
       </c>
       <c r="B61" t="n">
-        <v>1862.34</v>
+        <v>2029.68</v>
       </c>
       <c r="C61" t="n">
-        <v>7826.249999999998</v>
+        <v>9133.579999999998</v>
       </c>
       <c r="D61" t="n">
-        <v>774.8762376237622</v>
+        <v>913.3579999999998</v>
       </c>
       <c r="E61" t="n">
-        <v>697.388613861386</v>
+        <v>822.0221999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>697.388613861386</v>
+        <v>822.0221999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>619.9009900990098</v>
+        <v>730.6863999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>542.4133663366337</v>
+        <v>730.6863999999999</v>
       </c>
       <c r="I61" t="n">
-        <v>542.4133663366337</v>
+        <v>639.3506</v>
       </c>
       <c r="J61" t="n">
-        <v>542.4133663366337</v>
+        <v>548.0147999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>542.4133663366337</v>
+        <v>639.3506</v>
       </c>
       <c r="L61" t="n">
-        <v>464.9257425742573</v>
+        <v>548.0147999999998</v>
       </c>
       <c r="M61" t="n">
-        <v>697.388613861386</v>
+        <v>822.0221999999999</v>
       </c>
       <c r="N61" t="n">
-        <v>387.4381188118811</v>
+        <v>456.6789999999999</v>
       </c>
       <c r="O61" t="n">
-        <v>309.9504950495049</v>
+        <v>365.3432</v>
       </c>
       <c r="P61" t="n">
-        <v>232.4628712871286</v>
+        <v>274.0073999999999</v>
       </c>
       <c r="Q61" t="n">
-        <v>232.4628712871286</v>
+        <v>274.0073999999999</v>
       </c>
       <c r="R61" t="n">
-        <v>232.4628712871286</v>
+        <v>182.6716</v>
       </c>
       <c r="S61" t="n">
-        <v>309.9504950495049</v>
+        <v>365.3432</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1205</v>
+        <v>2103</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1629.52</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>7282.219999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>728.2219999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>655.3997999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>655.3997999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>582.5776</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>582.5776</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>509.7554</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>436.9331999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>509.7554</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>436.9331999999999</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>655.3997999999999</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>364.1109999999999</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>291.2888</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>218.4665999999999</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>218.4665999999999</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>145.6444</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>291.2888</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6501</v>
+        <v>1204</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1862.34</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>7826.249999999998</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>774.8762376237622</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>697.388613861386</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>697.388613861386</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>619.9009900990098</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>542.4133663366337</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>542.4133663366337</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>542.4133663366337</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>542.4133663366337</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>464.9257425742573</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>697.388613861386</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>387.4381188118811</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>309.9504950495049</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>232.4628712871286</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>232.4628712871286</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>232.4628712871286</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>309.9504950495049</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6502</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2480.57</v>
-      </c>
+        <v>1205</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>11162.57999999999</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1025.134897959183</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1025.134897959183</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1025.134897959183</v>
-      </c>
-      <c r="G64" t="n">
-        <v>911.231020408163</v>
-      </c>
-      <c r="H64" t="n">
-        <v>797.3271428571427</v>
-      </c>
-      <c r="I64" t="n">
-        <v>797.3271428571427</v>
-      </c>
-      <c r="J64" t="n">
-        <v>683.4232653061222</v>
-      </c>
-      <c r="K64" t="n">
-        <v>683.4232653061222</v>
-      </c>
-      <c r="L64" t="n">
-        <v>683.4232653061222</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1025.134897959183</v>
-      </c>
-      <c r="N64" t="n">
-        <v>569.5193877551019</v>
-      </c>
-      <c r="O64" t="n">
-        <v>455.6155102040815</v>
-      </c>
-      <c r="P64" t="n">
-        <v>341.7116326530611</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>341.7116326530611</v>
-      </c>
-      <c r="R64" t="n">
-        <v>341.7116326530611</v>
-      </c>
-      <c r="S64" t="n">
-        <v>455.6155102040815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6802</v>
-      </c>
-      <c r="B65" t="n">
-        <v>7152</v>
-      </c>
+        <v>6501</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>36658.24999999999</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3702.853535353534</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3702.853535353534</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3332.56818181818</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2962.282828282828</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2962.282828282828</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2591.997474747474</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2591.997474747474</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2221.712121212121</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1851.426767676767</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3702.853535353534</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1481.141414141414</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1110.85606060606</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1110.85606060606</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1110.85606060606</v>
-      </c>
-      <c r="R65" t="n">
-        <v>740.5707070707069</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1481.141414141414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3307</v>
+        <v>6502</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2480.57</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+        <v>11162.57999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1025.134897959183</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1025.134897959183</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1025.134897959183</v>
+      </c>
+      <c r="G66" t="n">
+        <v>911.231020408163</v>
+      </c>
+      <c r="H66" t="n">
+        <v>797.3271428571427</v>
+      </c>
+      <c r="I66" t="n">
+        <v>797.3271428571427</v>
+      </c>
+      <c r="J66" t="n">
+        <v>683.4232653061222</v>
+      </c>
+      <c r="K66" t="n">
+        <v>683.4232653061222</v>
+      </c>
+      <c r="L66" t="n">
+        <v>683.4232653061222</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1025.134897959183</v>
+      </c>
+      <c r="N66" t="n">
+        <v>569.5193877551019</v>
+      </c>
+      <c r="O66" t="n">
+        <v>455.6155102040815</v>
+      </c>
+      <c r="P66" t="n">
+        <v>341.7116326530611</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>341.7116326530611</v>
+      </c>
+      <c r="R66" t="n">
+        <v>341.7116326530611</v>
+      </c>
+      <c r="S66" t="n">
+        <v>455.6155102040815</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2502</v>
+        <v>6802</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>7152</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>36658.24999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>3702.853535353534</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3702.853535353534</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3332.56818181818</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2962.282828282828</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2962.282828282828</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2591.997474747474</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2591.997474747474</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>2221.712121212121</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1851.426767676767</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>3702.853535353534</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1481.141414141414</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1110.85606060606</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1110.85606060606</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1110.85606060606</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>740.5707070707069</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1481.141414141414</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6705</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
+        <v>3307</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
         <v>0</v>
       </c>
@@ -4293,1359 +4077,1223 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6803</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
+        <v>2502</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1304</v>
-      </c>
-      <c r="B70" t="n">
-        <v>917.5700000000001</v>
-      </c>
+        <v>6705</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>4129.069999999999</v>
-      </c>
-      <c r="D70" t="n">
-        <v>367.9369306930692</v>
-      </c>
-      <c r="E70" t="n">
-        <v>367.9369306930692</v>
-      </c>
-      <c r="F70" t="n">
-        <v>327.0550495049504</v>
-      </c>
-      <c r="G70" t="n">
-        <v>327.0550495049504</v>
-      </c>
-      <c r="H70" t="n">
-        <v>286.1731683168316</v>
-      </c>
-      <c r="I70" t="n">
-        <v>286.1731683168316</v>
-      </c>
-      <c r="J70" t="n">
-        <v>245.2912871287128</v>
-      </c>
-      <c r="K70" t="n">
-        <v>245.2912871287128</v>
-      </c>
-      <c r="L70" t="n">
-        <v>245.2912871287128</v>
-      </c>
-      <c r="M70" t="n">
-        <v>367.9369306930692</v>
-      </c>
-      <c r="N70" t="n">
-        <v>245.2912871287128</v>
-      </c>
-      <c r="O70" t="n">
-        <v>204.409405940594</v>
-      </c>
-      <c r="P70" t="n">
-        <v>163.5275247524752</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>122.6456435643564</v>
-      </c>
-      <c r="R70" t="n">
-        <v>122.6456435643564</v>
-      </c>
-      <c r="S70" t="n">
-        <v>204.409405940594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B71" t="n">
-        <v>854.92</v>
-      </c>
+        <v>6803</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>3847.149999999999</v>
-      </c>
-      <c r="D71" t="n">
-        <v>342.8153465346534</v>
-      </c>
-      <c r="E71" t="n">
-        <v>342.8153465346534</v>
-      </c>
-      <c r="F71" t="n">
-        <v>304.7247524752475</v>
-      </c>
-      <c r="G71" t="n">
-        <v>304.7247524752475</v>
-      </c>
-      <c r="H71" t="n">
-        <v>266.6341584158416</v>
-      </c>
-      <c r="I71" t="n">
-        <v>266.6341584158416</v>
-      </c>
-      <c r="J71" t="n">
-        <v>228.5435643564356</v>
-      </c>
-      <c r="K71" t="n">
-        <v>228.5435643564356</v>
-      </c>
-      <c r="L71" t="n">
-        <v>228.5435643564356</v>
-      </c>
-      <c r="M71" t="n">
-        <v>342.8153465346534</v>
-      </c>
-      <c r="N71" t="n">
-        <v>228.5435643564356</v>
-      </c>
-      <c r="O71" t="n">
-        <v>190.4529702970297</v>
-      </c>
-      <c r="P71" t="n">
-        <v>152.3623762376237</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>114.2717821782178</v>
-      </c>
-      <c r="R71" t="n">
-        <v>114.2717821782178</v>
-      </c>
-      <c r="S71" t="n">
-        <v>190.4529702970297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2402</v>
+        <v>1304</v>
       </c>
       <c r="B72" t="n">
-        <v>5942.61</v>
+        <v>917.5700000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>27629.96999999999</v>
+        <v>4129.069999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>2735.640594059405</v>
+        <v>367.9369306930692</v>
       </c>
       <c r="E72" t="n">
-        <v>2735.640594059405</v>
+        <v>367.9369306930692</v>
       </c>
       <c r="F72" t="n">
-        <v>2735.640594059405</v>
+        <v>327.0550495049504</v>
       </c>
       <c r="G72" t="n">
-        <v>2462.076534653465</v>
+        <v>327.0550495049504</v>
       </c>
       <c r="H72" t="n">
-        <v>2188.512475247524</v>
+        <v>286.1731683168316</v>
       </c>
       <c r="I72" t="n">
-        <v>1914.948415841584</v>
+        <v>286.1731683168316</v>
       </c>
       <c r="J72" t="n">
-        <v>1641.384356435643</v>
+        <v>245.2912871287128</v>
       </c>
       <c r="K72" t="n">
-        <v>1641.384356435643</v>
+        <v>245.2912871287128</v>
       </c>
       <c r="L72" t="n">
-        <v>1641.384356435643</v>
+        <v>245.2912871287128</v>
       </c>
       <c r="M72" t="n">
-        <v>2735.640594059405</v>
+        <v>367.9369306930692</v>
       </c>
       <c r="N72" t="n">
-        <v>1367.820297029703</v>
+        <v>245.2912871287128</v>
       </c>
       <c r="O72" t="n">
-        <v>820.6921782178216</v>
+        <v>204.409405940594</v>
       </c>
       <c r="P72" t="n">
-        <v>820.6921782178216</v>
+        <v>163.5275247524752</v>
       </c>
       <c r="Q72" t="n">
-        <v>820.6921782178216</v>
+        <v>122.6456435643564</v>
       </c>
       <c r="R72" t="n">
-        <v>547.1281188118811</v>
+        <v>122.6456435643564</v>
       </c>
       <c r="S72" t="n">
-        <v>820.6921782178216</v>
+        <v>204.409405940594</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6611</v>
+        <v>1306</v>
       </c>
       <c r="B73" t="n">
-        <v>721.22</v>
+        <v>854.92</v>
       </c>
       <c r="C73" t="n">
-        <v>3245.509999999999</v>
+        <v>3847.149999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>295.0463636363635</v>
+        <v>342.8153465346534</v>
       </c>
       <c r="E73" t="n">
-        <v>295.0463636363635</v>
+        <v>342.8153465346534</v>
       </c>
       <c r="F73" t="n">
-        <v>295.0463636363635</v>
+        <v>304.7247524752475</v>
       </c>
       <c r="G73" t="n">
-        <v>262.2634343434343</v>
+        <v>304.7247524752475</v>
       </c>
       <c r="H73" t="n">
-        <v>229.480505050505</v>
+        <v>266.6341584158416</v>
       </c>
       <c r="I73" t="n">
-        <v>229.480505050505</v>
+        <v>266.6341584158416</v>
       </c>
       <c r="J73" t="n">
-        <v>196.6975757575757</v>
+        <v>228.5435643564356</v>
       </c>
       <c r="K73" t="n">
-        <v>196.6975757575757</v>
+        <v>228.5435643564356</v>
       </c>
       <c r="L73" t="n">
-        <v>196.6975757575757</v>
+        <v>228.5435643564356</v>
       </c>
       <c r="M73" t="n">
-        <v>295.0463636363635</v>
+        <v>342.8153465346534</v>
       </c>
       <c r="N73" t="n">
-        <v>163.9146464646464</v>
+        <v>228.5435643564356</v>
       </c>
       <c r="O73" t="n">
-        <v>131.1317171717172</v>
+        <v>190.4529702970297</v>
       </c>
       <c r="P73" t="n">
-        <v>98.34878787878786</v>
+        <v>152.3623762376237</v>
       </c>
       <c r="Q73" t="n">
-        <v>98.34878787878786</v>
+        <v>114.2717821782178</v>
       </c>
       <c r="R73" t="n">
-        <v>98.34878787878786</v>
+        <v>114.2717821782178</v>
       </c>
       <c r="S73" t="n">
-        <v>163.9146464646464</v>
+        <v>190.4529702970297</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6607</v>
+        <v>2402</v>
       </c>
       <c r="B74" t="n">
-        <v>1161.28</v>
+        <v>5942.61</v>
       </c>
       <c r="C74" t="n">
-        <v>4889.359999999999</v>
+        <v>27629.96999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>444.4872727272725</v>
+        <v>2735.640594059405</v>
       </c>
       <c r="E74" t="n">
-        <v>444.4872727272725</v>
+        <v>2735.640594059405</v>
       </c>
       <c r="F74" t="n">
-        <v>444.4872727272725</v>
+        <v>2735.640594059405</v>
       </c>
       <c r="G74" t="n">
-        <v>395.0997979797979</v>
+        <v>2462.076534653465</v>
       </c>
       <c r="H74" t="n">
-        <v>345.7123232323231</v>
+        <v>2188.512475247524</v>
       </c>
       <c r="I74" t="n">
-        <v>345.7123232323231</v>
+        <v>1914.948415841584</v>
       </c>
       <c r="J74" t="n">
-        <v>296.3248484848484</v>
+        <v>1641.384356435643</v>
       </c>
       <c r="K74" t="n">
-        <v>296.3248484848484</v>
+        <v>1641.384356435643</v>
       </c>
       <c r="L74" t="n">
-        <v>296.3248484848484</v>
+        <v>1641.384356435643</v>
       </c>
       <c r="M74" t="n">
-        <v>444.4872727272725</v>
+        <v>2735.640594059405</v>
       </c>
       <c r="N74" t="n">
-        <v>246.9373737373737</v>
+        <v>1367.820297029703</v>
       </c>
       <c r="O74" t="n">
-        <v>197.5498989898989</v>
+        <v>820.6921782178216</v>
       </c>
       <c r="P74" t="n">
-        <v>148.1624242424242</v>
+        <v>820.6921782178216</v>
       </c>
       <c r="Q74" t="n">
-        <v>148.1624242424242</v>
+        <v>820.6921782178216</v>
       </c>
       <c r="R74" t="n">
-        <v>148.1624242424242</v>
+        <v>547.1281188118811</v>
       </c>
       <c r="S74" t="n">
-        <v>246.9373737373737</v>
+        <v>820.6921782178216</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3606</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1235.49</v>
-      </c>
+        <v>6611</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>5148.639999999999</v>
-      </c>
-      <c r="D75" t="n">
-        <v>468.0581818181817</v>
-      </c>
-      <c r="E75" t="n">
-        <v>468.0581818181817</v>
-      </c>
-      <c r="F75" t="n">
-        <v>468.0581818181817</v>
-      </c>
-      <c r="G75" t="n">
-        <v>416.0517171717171</v>
-      </c>
-      <c r="H75" t="n">
-        <v>364.0452525252525</v>
-      </c>
-      <c r="I75" t="n">
-        <v>312.0387878787878</v>
-      </c>
-      <c r="J75" t="n">
-        <v>312.0387878787878</v>
-      </c>
-      <c r="K75" t="n">
-        <v>364.0452525252525</v>
-      </c>
-      <c r="L75" t="n">
-        <v>312.0387878787878</v>
-      </c>
-      <c r="M75" t="n">
-        <v>468.0581818181817</v>
-      </c>
-      <c r="N75" t="n">
-        <v>260.0323232323232</v>
-      </c>
-      <c r="O75" t="n">
-        <v>208.0258585858585</v>
-      </c>
-      <c r="P75" t="n">
-        <v>156.0193939393939</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>156.0193939393939</v>
-      </c>
-      <c r="R75" t="n">
-        <v>156.0193939393939</v>
-      </c>
-      <c r="S75" t="n">
-        <v>260.0323232323232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3604</v>
+        <v>6607</v>
       </c>
       <c r="B76" t="n">
-        <v>1272.49</v>
+        <v>1161.28</v>
       </c>
       <c r="C76" t="n">
-        <v>5287.729999999998</v>
+        <v>4889.359999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>480.702727272727</v>
+        <v>444.4872727272725</v>
       </c>
       <c r="E76" t="n">
-        <v>480.702727272727</v>
+        <v>444.4872727272725</v>
       </c>
       <c r="F76" t="n">
-        <v>480.702727272727</v>
+        <v>444.4872727272725</v>
       </c>
       <c r="G76" t="n">
-        <v>427.291313131313</v>
+        <v>395.0997979797979</v>
       </c>
       <c r="H76" t="n">
-        <v>373.8798989898989</v>
+        <v>345.7123232323231</v>
       </c>
       <c r="I76" t="n">
-        <v>320.4684848484847</v>
+        <v>345.7123232323231</v>
       </c>
       <c r="J76" t="n">
-        <v>320.4684848484847</v>
+        <v>296.3248484848484</v>
       </c>
       <c r="K76" t="n">
-        <v>373.8798989898989</v>
+        <v>296.3248484848484</v>
       </c>
       <c r="L76" t="n">
-        <v>320.4684848484847</v>
+        <v>296.3248484848484</v>
       </c>
       <c r="M76" t="n">
-        <v>480.702727272727</v>
+        <v>444.4872727272725</v>
       </c>
       <c r="N76" t="n">
-        <v>267.0570707070706</v>
+        <v>246.9373737373737</v>
       </c>
       <c r="O76" t="n">
-        <v>213.6456565656565</v>
+        <v>197.5498989898989</v>
       </c>
       <c r="P76" t="n">
-        <v>160.2342424242424</v>
+        <v>148.1624242424242</v>
       </c>
       <c r="Q76" t="n">
-        <v>160.2342424242424</v>
+        <v>148.1624242424242</v>
       </c>
       <c r="R76" t="n">
-        <v>160.2342424242424</v>
+        <v>148.1624242424242</v>
       </c>
       <c r="S76" t="n">
-        <v>267.0570707070706</v>
+        <v>246.9373737373737</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="B77" t="n">
-        <v>727.04</v>
+        <v>1235.49</v>
       </c>
       <c r="C77" t="n">
-        <v>3085.969999999998</v>
+        <v>5148.639999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>280.5427272727271</v>
+        <v>468.0581818181817</v>
       </c>
       <c r="E77" t="n">
-        <v>280.5427272727271</v>
+        <v>468.0581818181817</v>
       </c>
       <c r="F77" t="n">
-        <v>280.5427272727271</v>
+        <v>468.0581818181817</v>
       </c>
       <c r="G77" t="n">
-        <v>249.3713131313131</v>
+        <v>416.0517171717171</v>
       </c>
       <c r="H77" t="n">
-        <v>218.1998989898989</v>
+        <v>364.0452525252525</v>
       </c>
       <c r="I77" t="n">
-        <v>187.0284848484848</v>
+        <v>312.0387878787878</v>
       </c>
       <c r="J77" t="n">
-        <v>187.0284848484848</v>
+        <v>312.0387878787878</v>
       </c>
       <c r="K77" t="n">
-        <v>218.1998989898989</v>
+        <v>364.0452525252525</v>
       </c>
       <c r="L77" t="n">
-        <v>187.0284848484848</v>
+        <v>312.0387878787878</v>
       </c>
       <c r="M77" t="n">
-        <v>280.5427272727271</v>
+        <v>468.0581818181817</v>
       </c>
       <c r="N77" t="n">
-        <v>155.8570707070706</v>
+        <v>260.0323232323232</v>
       </c>
       <c r="O77" t="n">
-        <v>124.6856565656565</v>
+        <v>208.0258585858585</v>
       </c>
       <c r="P77" t="n">
-        <v>93.51424242424238</v>
+        <v>156.0193939393939</v>
       </c>
       <c r="Q77" t="n">
-        <v>93.51424242424238</v>
+        <v>156.0193939393939</v>
       </c>
       <c r="R77" t="n">
-        <v>93.51424242424238</v>
+        <v>156.0193939393939</v>
       </c>
       <c r="S77" t="n">
-        <v>155.8570707070706</v>
+        <v>260.0323232323232</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2403</v>
+        <v>3604</v>
       </c>
       <c r="B78" t="n">
-        <v>2043.25</v>
+        <v>1272.49</v>
       </c>
       <c r="C78" t="n">
-        <v>10411.68</v>
+        <v>5287.729999999998</v>
       </c>
       <c r="D78" t="n">
-        <v>1030.859405940594</v>
+        <v>480.702727272727</v>
       </c>
       <c r="E78" t="n">
-        <v>1030.859405940594</v>
+        <v>480.702727272727</v>
       </c>
       <c r="F78" t="n">
-        <v>1030.859405940594</v>
+        <v>480.702727272727</v>
       </c>
       <c r="G78" t="n">
-        <v>927.7734653465345</v>
+        <v>427.291313131313</v>
       </c>
       <c r="H78" t="n">
-        <v>824.6875247524752</v>
+        <v>373.8798989898989</v>
       </c>
       <c r="I78" t="n">
-        <v>721.6015841584158</v>
+        <v>320.4684848484847</v>
       </c>
       <c r="J78" t="n">
-        <v>618.5156435643563</v>
+        <v>320.4684848484847</v>
       </c>
       <c r="K78" t="n">
-        <v>618.5156435643563</v>
+        <v>373.8798989898989</v>
       </c>
       <c r="L78" t="n">
-        <v>618.5156435643563</v>
+        <v>320.4684848484847</v>
       </c>
       <c r="M78" t="n">
-        <v>1030.859405940594</v>
+        <v>480.702727272727</v>
       </c>
       <c r="N78" t="n">
-        <v>515.4297029702969</v>
+        <v>267.0570707070706</v>
       </c>
       <c r="O78" t="n">
-        <v>309.2578217821782</v>
+        <v>213.6456565656565</v>
       </c>
       <c r="P78" t="n">
-        <v>309.2578217821782</v>
+        <v>160.2342424242424</v>
       </c>
       <c r="Q78" t="n">
-        <v>309.2578217821782</v>
+        <v>160.2342424242424</v>
       </c>
       <c r="R78" t="n">
-        <v>206.1718811881188</v>
+        <v>160.2342424242424</v>
       </c>
       <c r="S78" t="n">
-        <v>309.2578217821782</v>
+        <v>267.0570707070706</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3601</v>
+        <v>3609</v>
       </c>
       <c r="B79" t="n">
-        <v>206.64</v>
+        <v>727.04</v>
       </c>
       <c r="C79" t="n">
-        <v>824.8399999999998</v>
+        <v>3085.969999999998</v>
       </c>
       <c r="D79" t="n">
-        <v>74.98545454545452</v>
+        <v>280.5427272727271</v>
       </c>
       <c r="E79" t="n">
-        <v>74.98545454545452</v>
+        <v>280.5427272727271</v>
       </c>
       <c r="F79" t="n">
-        <v>74.98545454545452</v>
+        <v>280.5427272727271</v>
       </c>
       <c r="G79" t="n">
-        <v>66.65373737373736</v>
+        <v>249.3713131313131</v>
       </c>
       <c r="H79" t="n">
-        <v>58.32202020202019</v>
+        <v>218.1998989898989</v>
       </c>
       <c r="I79" t="n">
-        <v>49.99030303030302</v>
+        <v>187.0284848484848</v>
       </c>
       <c r="J79" t="n">
-        <v>49.99030303030302</v>
+        <v>187.0284848484848</v>
       </c>
       <c r="K79" t="n">
-        <v>58.32202020202019</v>
+        <v>218.1998989898989</v>
       </c>
       <c r="L79" t="n">
-        <v>49.99030303030302</v>
+        <v>187.0284848484848</v>
       </c>
       <c r="M79" t="n">
-        <v>74.98545454545452</v>
+        <v>280.5427272727271</v>
       </c>
       <c r="N79" t="n">
-        <v>41.65858585858584</v>
+        <v>155.8570707070706</v>
       </c>
       <c r="O79" t="n">
-        <v>33.32686868686868</v>
+        <v>124.6856565656565</v>
       </c>
       <c r="P79" t="n">
-        <v>24.99515151515151</v>
+        <v>93.51424242424238</v>
       </c>
       <c r="Q79" t="n">
-        <v>24.99515151515151</v>
+        <v>93.51424242424238</v>
       </c>
       <c r="R79" t="n">
-        <v>24.99515151515151</v>
+        <v>93.51424242424238</v>
       </c>
       <c r="S79" t="n">
-        <v>41.65858585858584</v>
+        <v>155.8570707070706</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3602</v>
+        <v>2403</v>
       </c>
       <c r="B80" t="n">
-        <v>1337.69</v>
+        <v>2043.25</v>
       </c>
       <c r="C80" t="n">
-        <v>5432.069999999998</v>
+        <v>10411.68</v>
       </c>
       <c r="D80" t="n">
-        <v>493.8245454545452</v>
+        <v>1030.859405940594</v>
       </c>
       <c r="E80" t="n">
-        <v>493.8245454545452</v>
+        <v>1030.859405940594</v>
       </c>
       <c r="F80" t="n">
-        <v>493.8245454545452</v>
+        <v>1030.859405940594</v>
       </c>
       <c r="G80" t="n">
-        <v>438.9551515151514</v>
+        <v>927.7734653465345</v>
       </c>
       <c r="H80" t="n">
-        <v>384.0857575757574</v>
+        <v>824.6875247524752</v>
       </c>
       <c r="I80" t="n">
-        <v>329.2163636363635</v>
+        <v>721.6015841584158</v>
       </c>
       <c r="J80" t="n">
-        <v>329.2163636363635</v>
+        <v>618.5156435643563</v>
       </c>
       <c r="K80" t="n">
-        <v>384.0857575757574</v>
+        <v>618.5156435643563</v>
       </c>
       <c r="L80" t="n">
-        <v>329.2163636363635</v>
+        <v>618.5156435643563</v>
       </c>
       <c r="M80" t="n">
-        <v>493.8245454545452</v>
+        <v>1030.859405940594</v>
       </c>
       <c r="N80" t="n">
-        <v>274.3469696969696</v>
+        <v>515.4297029702969</v>
       </c>
       <c r="O80" t="n">
-        <v>219.4775757575757</v>
+        <v>309.2578217821782</v>
       </c>
       <c r="P80" t="n">
-        <v>164.6081818181817</v>
+        <v>309.2578217821782</v>
       </c>
       <c r="Q80" t="n">
-        <v>164.6081818181817</v>
+        <v>309.2578217821782</v>
       </c>
       <c r="R80" t="n">
-        <v>164.6081818181817</v>
+        <v>206.1718811881188</v>
       </c>
       <c r="S80" t="n">
-        <v>274.3469696969696</v>
+        <v>309.2578217821782</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3610</v>
+        <v>3601</v>
       </c>
       <c r="B81" t="n">
-        <v>1110.32</v>
+        <v>206.64</v>
       </c>
       <c r="C81" t="n">
-        <v>4678.069999999998</v>
+        <v>824.8399999999998</v>
       </c>
       <c r="D81" t="n">
-        <v>425.2790909090907</v>
+        <v>74.98545454545452</v>
       </c>
       <c r="E81" t="n">
-        <v>425.2790909090907</v>
+        <v>74.98545454545452</v>
       </c>
       <c r="F81" t="n">
-        <v>425.2790909090907</v>
+        <v>74.98545454545452</v>
       </c>
       <c r="G81" t="n">
-        <v>378.0258585858585</v>
+        <v>66.65373737373736</v>
       </c>
       <c r="H81" t="n">
-        <v>330.7726262626261</v>
+        <v>58.32202020202019</v>
       </c>
       <c r="I81" t="n">
-        <v>283.5193939393938</v>
+        <v>49.99030303030302</v>
       </c>
       <c r="J81" t="n">
-        <v>283.5193939393938</v>
+        <v>49.99030303030302</v>
       </c>
       <c r="K81" t="n">
-        <v>330.7726262626261</v>
+        <v>58.32202020202019</v>
       </c>
       <c r="L81" t="n">
-        <v>283.5193939393938</v>
+        <v>49.99030303030302</v>
       </c>
       <c r="M81" t="n">
-        <v>425.2790909090907</v>
+        <v>74.98545454545452</v>
       </c>
       <c r="N81" t="n">
-        <v>236.2661616161615</v>
+        <v>41.65858585858584</v>
       </c>
       <c r="O81" t="n">
-        <v>189.0129292929292</v>
+        <v>33.32686868686868</v>
       </c>
       <c r="P81" t="n">
-        <v>141.7596969696969</v>
+        <v>24.99515151515151</v>
       </c>
       <c r="Q81" t="n">
-        <v>141.7596969696969</v>
+        <v>24.99515151515151</v>
       </c>
       <c r="R81" t="n">
-        <v>141.7596969696969</v>
+        <v>24.99515151515151</v>
       </c>
       <c r="S81" t="n">
-        <v>236.2661616161615</v>
+        <v>41.65858585858584</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="B82" t="n">
-        <v>1093.96</v>
+        <v>1337.69</v>
       </c>
       <c r="C82" t="n">
-        <v>4616.569999999998</v>
+        <v>5432.069999999998</v>
       </c>
       <c r="D82" t="n">
-        <v>419.6881818181816</v>
+        <v>493.8245454545452</v>
       </c>
       <c r="E82" t="n">
-        <v>419.6881818181816</v>
+        <v>493.8245454545452</v>
       </c>
       <c r="F82" t="n">
-        <v>419.6881818181816</v>
+        <v>493.8245454545452</v>
       </c>
       <c r="G82" t="n">
-        <v>373.0561616161615</v>
+        <v>438.9551515151514</v>
       </c>
       <c r="H82" t="n">
-        <v>326.4241414141413</v>
+        <v>384.0857575757574</v>
       </c>
       <c r="I82" t="n">
-        <v>279.7921212121211</v>
+        <v>329.2163636363635</v>
       </c>
       <c r="J82" t="n">
-        <v>279.7921212121211</v>
+        <v>329.2163636363635</v>
       </c>
       <c r="K82" t="n">
-        <v>326.4241414141413</v>
+        <v>384.0857575757574</v>
       </c>
       <c r="L82" t="n">
-        <v>279.7921212121211</v>
+        <v>329.2163636363635</v>
       </c>
       <c r="M82" t="n">
-        <v>419.6881818181816</v>
+        <v>493.8245454545452</v>
       </c>
       <c r="N82" t="n">
-        <v>233.1601010101009</v>
+        <v>274.3469696969696</v>
       </c>
       <c r="O82" t="n">
-        <v>186.5280808080807</v>
+        <v>219.4775757575757</v>
       </c>
       <c r="P82" t="n">
-        <v>139.8960606060606</v>
+        <v>164.6081818181817</v>
       </c>
       <c r="Q82" t="n">
-        <v>139.8960606060606</v>
+        <v>164.6081818181817</v>
       </c>
       <c r="R82" t="n">
-        <v>139.8960606060606</v>
+        <v>164.6081818181817</v>
       </c>
       <c r="S82" t="n">
-        <v>233.1601010101009</v>
+        <v>274.3469696969696</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2501</v>
+        <v>3610</v>
       </c>
       <c r="B83" t="n">
-        <v>3843.46</v>
+        <v>1110.32</v>
       </c>
       <c r="C83" t="n">
-        <v>17115.56999999999</v>
+        <v>4678.069999999998</v>
       </c>
       <c r="D83" t="n">
-        <v>1694.610891089108</v>
+        <v>425.2790909090907</v>
       </c>
       <c r="E83" t="n">
-        <v>1694.610891089108</v>
+        <v>425.2790909090907</v>
       </c>
       <c r="F83" t="n">
-        <v>1694.610891089108</v>
+        <v>425.2790909090907</v>
       </c>
       <c r="G83" t="n">
-        <v>1525.149801980198</v>
+        <v>378.0258585858585</v>
       </c>
       <c r="H83" t="n">
-        <v>1355.688712871287</v>
+        <v>330.7726262626261</v>
       </c>
       <c r="I83" t="n">
-        <v>1186.227623762376</v>
+        <v>283.5193939393938</v>
       </c>
       <c r="J83" t="n">
-        <v>1186.227623762376</v>
+        <v>283.5193939393938</v>
       </c>
       <c r="K83" t="n">
-        <v>1186.227623762376</v>
+        <v>330.7726262626261</v>
       </c>
       <c r="L83" t="n">
-        <v>847.3054455445542</v>
+        <v>283.5193939393938</v>
       </c>
       <c r="M83" t="n">
-        <v>1694.610891089108</v>
+        <v>425.2790909090907</v>
       </c>
       <c r="N83" t="n">
-        <v>677.8443564356435</v>
+        <v>236.2661616161615</v>
       </c>
       <c r="O83" t="n">
-        <v>508.3832673267326</v>
+        <v>189.0129292929292</v>
       </c>
       <c r="P83" t="n">
-        <v>508.3832673267326</v>
+        <v>141.7596969696969</v>
       </c>
       <c r="Q83" t="n">
-        <v>508.3832673267326</v>
+        <v>141.7596969696969</v>
       </c>
       <c r="R83" t="n">
-        <v>338.9221782178217</v>
+        <v>141.7596969696969</v>
       </c>
       <c r="S83" t="n">
-        <v>508.3832673267326</v>
+        <v>236.2661616161615</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2504</v>
+        <v>3603</v>
       </c>
       <c r="B84" t="n">
-        <v>2138.3</v>
+        <v>1093.96</v>
       </c>
       <c r="C84" t="n">
-        <v>9074.829999999998</v>
+        <v>4616.569999999998</v>
       </c>
       <c r="D84" t="n">
-        <v>898.49801980198</v>
+        <v>419.6881818181816</v>
       </c>
       <c r="E84" t="n">
-        <v>808.6482178217821</v>
+        <v>419.6881818181816</v>
       </c>
       <c r="F84" t="n">
-        <v>808.6482178217821</v>
+        <v>419.6881818181816</v>
       </c>
       <c r="G84" t="n">
-        <v>808.6482178217821</v>
+        <v>373.0561616161615</v>
       </c>
       <c r="H84" t="n">
-        <v>718.7984158415841</v>
+        <v>326.4241414141413</v>
       </c>
       <c r="I84" t="n">
-        <v>628.9486138613861</v>
+        <v>279.7921212121211</v>
       </c>
       <c r="J84" t="n">
-        <v>539.098811881188</v>
+        <v>279.7921212121211</v>
       </c>
       <c r="K84" t="n">
-        <v>539.098811881188</v>
+        <v>326.4241414141413</v>
       </c>
       <c r="L84" t="n">
-        <v>539.098811881188</v>
+        <v>279.7921212121211</v>
       </c>
       <c r="M84" t="n">
-        <v>808.6482178217821</v>
+        <v>419.6881818181816</v>
       </c>
       <c r="N84" t="n">
-        <v>449.24900990099</v>
+        <v>233.1601010101009</v>
       </c>
       <c r="O84" t="n">
-        <v>359.399207920792</v>
+        <v>186.5280808080807</v>
       </c>
       <c r="P84" t="n">
-        <v>269.549405940594</v>
+        <v>139.8960606060606</v>
       </c>
       <c r="Q84" t="n">
-        <v>269.549405940594</v>
+        <v>139.8960606060606</v>
       </c>
       <c r="R84" t="n">
-        <v>269.549405940594</v>
+        <v>139.8960606060606</v>
       </c>
       <c r="S84" t="n">
-        <v>359.399207920792</v>
+        <v>233.1601010101009</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>304</v>
+        <v>2501</v>
       </c>
       <c r="B85" t="n">
-        <v>1127.06</v>
+        <v>3843.46</v>
       </c>
       <c r="C85" t="n">
-        <v>5102.75</v>
+        <v>17115.56999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>412.3434343434342</v>
+        <v>1694.610891089108</v>
       </c>
       <c r="E85" t="n">
-        <v>412.3434343434342</v>
+        <v>1694.610891089108</v>
       </c>
       <c r="F85" t="n">
-        <v>360.800505050505</v>
+        <v>1694.610891089108</v>
       </c>
       <c r="G85" t="n">
-        <v>360.800505050505</v>
+        <v>1525.149801980198</v>
       </c>
       <c r="H85" t="n">
-        <v>309.2575757575757</v>
+        <v>1355.688712871287</v>
       </c>
       <c r="I85" t="n">
-        <v>309.2575757575757</v>
+        <v>1186.227623762376</v>
       </c>
       <c r="J85" t="n">
-        <v>309.2575757575757</v>
+        <v>1186.227623762376</v>
       </c>
       <c r="K85" t="n">
-        <v>309.2575757575757</v>
+        <v>1186.227623762376</v>
       </c>
       <c r="L85" t="n">
-        <v>309.2575757575757</v>
+        <v>847.3054455445542</v>
       </c>
       <c r="M85" t="n">
-        <v>412.3434343434342</v>
+        <v>1694.610891089108</v>
       </c>
       <c r="N85" t="n">
-        <v>257.7146464646464</v>
+        <v>677.8443564356435</v>
       </c>
       <c r="O85" t="n">
-        <v>257.7146464646464</v>
+        <v>508.3832673267326</v>
       </c>
       <c r="P85" t="n">
-        <v>257.7146464646464</v>
+        <v>508.3832673267326</v>
       </c>
       <c r="Q85" t="n">
-        <v>257.7146464646464</v>
+        <v>508.3832673267326</v>
       </c>
       <c r="R85" t="n">
-        <v>206.1717171717171</v>
+        <v>338.9221782178217</v>
       </c>
       <c r="S85" t="n">
-        <v>360.800505050505</v>
+        <v>508.3832673267326</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>303</v>
+        <v>2504</v>
       </c>
       <c r="B86" t="n">
-        <v>603.61</v>
+        <v>2138.3</v>
       </c>
       <c r="C86" t="n">
-        <v>2737.249999999999</v>
+        <v>9074.829999999998</v>
       </c>
       <c r="D86" t="n">
-        <v>221.1919191919191</v>
+        <v>898.49801980198</v>
       </c>
       <c r="E86" t="n">
-        <v>221.1919191919191</v>
+        <v>808.6482178217821</v>
       </c>
       <c r="F86" t="n">
-        <v>193.5429292929293</v>
+        <v>808.6482178217821</v>
       </c>
       <c r="G86" t="n">
-        <v>193.5429292929293</v>
+        <v>808.6482178217821</v>
       </c>
       <c r="H86" t="n">
-        <v>193.5429292929293</v>
+        <v>718.7984158415841</v>
       </c>
       <c r="I86" t="n">
-        <v>165.8939393939393</v>
+        <v>628.9486138613861</v>
       </c>
       <c r="J86" t="n">
-        <v>165.8939393939393</v>
+        <v>539.098811881188</v>
       </c>
       <c r="K86" t="n">
-        <v>165.8939393939393</v>
+        <v>539.098811881188</v>
       </c>
       <c r="L86" t="n">
-        <v>165.8939393939393</v>
+        <v>539.098811881188</v>
       </c>
       <c r="M86" t="n">
-        <v>221.1919191919191</v>
+        <v>808.6482178217821</v>
       </c>
       <c r="N86" t="n">
-        <v>138.2449494949495</v>
+        <v>449.24900990099</v>
       </c>
       <c r="O86" t="n">
-        <v>138.2449494949495</v>
+        <v>359.399207920792</v>
       </c>
       <c r="P86" t="n">
-        <v>110.5959595959596</v>
+        <v>269.549405940594</v>
       </c>
       <c r="Q86" t="n">
-        <v>138.2449494949495</v>
+        <v>269.549405940594</v>
       </c>
       <c r="R86" t="n">
-        <v>82.94696969696967</v>
+        <v>269.549405940594</v>
       </c>
       <c r="S86" t="n">
-        <v>221.1919191919191</v>
+        <v>359.399207920792</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B87" t="n">
-        <v>5266.97</v>
+        <v>1127.06</v>
       </c>
       <c r="C87" t="n">
-        <v>23767.35999999999</v>
+        <v>5071.749999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>2139.0624</v>
+        <v>409.8383838383837</v>
       </c>
       <c r="E87" t="n">
-        <v>2139.0624</v>
+        <v>409.8383838383837</v>
       </c>
       <c r="F87" t="n">
-        <v>1901.3888</v>
+        <v>358.6085858585859</v>
       </c>
       <c r="G87" t="n">
-        <v>1901.3888</v>
+        <v>358.6085858585859</v>
       </c>
       <c r="H87" t="n">
-        <v>1663.7152</v>
+        <v>307.3787878787878</v>
       </c>
       <c r="I87" t="n">
-        <v>1663.7152</v>
+        <v>307.3787878787878</v>
       </c>
       <c r="J87" t="n">
-        <v>1426.0416</v>
+        <v>307.3787878787878</v>
       </c>
       <c r="K87" t="n">
-        <v>1426.0416</v>
+        <v>307.3787878787878</v>
       </c>
       <c r="L87" t="n">
-        <v>1426.0416</v>
+        <v>307.3787878787878</v>
       </c>
       <c r="M87" t="n">
-        <v>2139.0624</v>
+        <v>409.8383838383837</v>
       </c>
       <c r="N87" t="n">
-        <v>1188.368</v>
+        <v>256.1489898989898</v>
       </c>
       <c r="O87" t="n">
-        <v>1188.368</v>
+        <v>256.1489898989898</v>
       </c>
       <c r="P87" t="n">
-        <v>950.6943999999999</v>
+        <v>256.1489898989898</v>
       </c>
       <c r="Q87" t="n">
-        <v>713.0207999999998</v>
+        <v>256.1489898989898</v>
       </c>
       <c r="R87" t="n">
-        <v>713.0207999999998</v>
+        <v>204.9191919191919</v>
       </c>
       <c r="S87" t="n">
-        <v>1188.368</v>
+        <v>358.6085858585859</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7651</v>
+        <v>303</v>
       </c>
       <c r="B88" t="n">
-        <v>2981.2</v>
+        <v>603.61</v>
       </c>
       <c r="C88" t="n">
-        <v>12501.55</v>
+        <v>2716.25</v>
       </c>
       <c r="D88" t="n">
-        <v>1148.101530612244</v>
+        <v>219.4949494949495</v>
       </c>
       <c r="E88" t="n">
-        <v>1020.534693877551</v>
+        <v>219.4949494949495</v>
       </c>
       <c r="F88" t="n">
-        <v>1020.534693877551</v>
+        <v>192.0580808080808</v>
       </c>
       <c r="G88" t="n">
-        <v>1020.534693877551</v>
+        <v>192.0580808080808</v>
       </c>
       <c r="H88" t="n">
-        <v>892.967857142857</v>
+        <v>192.0580808080808</v>
       </c>
       <c r="I88" t="n">
-        <v>765.401020408163</v>
+        <v>164.6212121212121</v>
       </c>
       <c r="J88" t="n">
-        <v>765.401020408163</v>
+        <v>164.6212121212121</v>
       </c>
       <c r="K88" t="n">
-        <v>765.401020408163</v>
+        <v>164.6212121212121</v>
       </c>
       <c r="L88" t="n">
-        <v>765.401020408163</v>
+        <v>164.6212121212121</v>
       </c>
       <c r="M88" t="n">
-        <v>1148.101530612244</v>
+        <v>219.4949494949495</v>
       </c>
       <c r="N88" t="n">
-        <v>637.8341836734693</v>
+        <v>137.1843434343434</v>
       </c>
       <c r="O88" t="n">
-        <v>510.2673469387753</v>
+        <v>137.1843434343434</v>
       </c>
       <c r="P88" t="n">
-        <v>510.2673469387753</v>
+        <v>109.7474747474747</v>
       </c>
       <c r="Q88" t="n">
-        <v>382.7005102040815</v>
+        <v>137.1843434343434</v>
       </c>
       <c r="R88" t="n">
-        <v>382.7005102040815</v>
+        <v>82.31060606060605</v>
       </c>
       <c r="S88" t="n">
-        <v>765.401020408163</v>
+        <v>219.4949494949495</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7652</v>
+        <v>301</v>
       </c>
       <c r="B89" t="n">
-        <v>2008.36</v>
+        <v>5266.97</v>
       </c>
       <c r="C89" t="n">
-        <v>8422.369999999999</v>
+        <v>23701.35999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>817.7058252427184</v>
+        <v>2133.1224</v>
       </c>
       <c r="E89" t="n">
-        <v>817.7058252427184</v>
+        <v>2133.1224</v>
       </c>
       <c r="F89" t="n">
-        <v>817.7058252427184</v>
+        <v>1896.1088</v>
       </c>
       <c r="G89" t="n">
-        <v>735.9352427184465</v>
+        <v>1896.1088</v>
       </c>
       <c r="H89" t="n">
-        <v>654.1646601941746</v>
+        <v>1659.0952</v>
       </c>
       <c r="I89" t="n">
-        <v>572.3940776699028</v>
+        <v>1659.0952</v>
       </c>
       <c r="J89" t="n">
-        <v>572.3940776699028</v>
+        <v>1422.0816</v>
       </c>
       <c r="K89" t="n">
-        <v>572.3940776699028</v>
+        <v>1422.0816</v>
       </c>
       <c r="L89" t="n">
-        <v>490.623495145631</v>
+        <v>1422.0816</v>
       </c>
       <c r="M89" t="n">
-        <v>817.7058252427184</v>
+        <v>2133.1224</v>
       </c>
       <c r="N89" t="n">
-        <v>408.8529126213592</v>
+        <v>1185.068</v>
       </c>
       <c r="O89" t="n">
-        <v>245.3117475728155</v>
+        <v>1185.068</v>
       </c>
       <c r="P89" t="n">
-        <v>245.3117475728155</v>
+        <v>948.0543999999999</v>
       </c>
       <c r="Q89" t="n">
-        <v>245.3117475728155</v>
+        <v>711.0407999999999</v>
       </c>
       <c r="R89" t="n">
-        <v>163.5411650485437</v>
+        <v>711.0407999999999</v>
       </c>
       <c r="S89" t="n">
-        <v>245.3117475728155</v>
+        <v>1185.068</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>201</v>
+        <v>7651</v>
       </c>
       <c r="B90" t="n">
-        <v>42.12</v>
+        <v>2981.2</v>
       </c>
       <c r="C90" t="n">
-        <v>189.54</v>
+        <v>12501.55</v>
       </c>
       <c r="D90" t="n">
-        <v>22.7448</v>
+        <v>1148.101530612244</v>
       </c>
       <c r="E90" t="n">
-        <v>22.7448</v>
+        <v>1020.534693877551</v>
       </c>
       <c r="F90" t="n">
-        <v>20.8494</v>
+        <v>1020.534693877551</v>
       </c>
       <c r="G90" t="n">
-        <v>18.954</v>
+        <v>1020.534693877551</v>
       </c>
       <c r="H90" t="n">
-        <v>15.1632</v>
+        <v>892.967857142857</v>
       </c>
       <c r="I90" t="n">
-        <v>13.2678</v>
+        <v>765.401020408163</v>
       </c>
       <c r="J90" t="n">
-        <v>9.477</v>
+        <v>765.401020408163</v>
       </c>
       <c r="K90" t="n">
-        <v>9.477</v>
+        <v>765.401020408163</v>
       </c>
       <c r="L90" t="n">
-        <v>9.477</v>
+        <v>765.401020408163</v>
       </c>
       <c r="M90" t="n">
-        <v>22.7448</v>
+        <v>1148.101530612244</v>
       </c>
       <c r="N90" t="n">
-        <v>7.5816</v>
+        <v>637.8341836734693</v>
       </c>
       <c r="O90" t="n">
-        <v>5.686199999999999</v>
+        <v>510.2673469387753</v>
       </c>
       <c r="P90" t="n">
-        <v>3.7908</v>
+        <v>510.2673469387753</v>
       </c>
       <c r="Q90" t="n">
-        <v>3.7908</v>
+        <v>382.7005102040815</v>
       </c>
       <c r="R90" t="n">
-        <v>1.8954</v>
+        <v>382.7005102040815</v>
       </c>
       <c r="S90" t="n">
-        <v>1.8954</v>
+        <v>765.401020408163</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6608</v>
+        <v>7652</v>
       </c>
       <c r="B91" t="n">
-        <v>748.4400000000001</v>
+        <v>2008.36</v>
       </c>
       <c r="C91" t="n">
-        <v>3367.98</v>
+        <v>8422.369999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>404.1576</v>
+        <v>817.7058252427184</v>
       </c>
       <c r="E91" t="n">
-        <v>404.1576</v>
+        <v>817.7058252427184</v>
       </c>
       <c r="F91" t="n">
-        <v>370.4778</v>
+        <v>817.7058252427184</v>
       </c>
       <c r="G91" t="n">
-        <v>336.798</v>
+        <v>735.9352427184465</v>
       </c>
       <c r="H91" t="n">
-        <v>269.4384</v>
+        <v>654.1646601941746</v>
       </c>
       <c r="I91" t="n">
-        <v>235.7586</v>
+        <v>572.3940776699028</v>
       </c>
       <c r="J91" t="n">
-        <v>168.399</v>
+        <v>572.3940776699028</v>
       </c>
       <c r="K91" t="n">
-        <v>168.399</v>
+        <v>572.3940776699028</v>
       </c>
       <c r="L91" t="n">
-        <v>168.399</v>
+        <v>490.623495145631</v>
       </c>
       <c r="M91" t="n">
-        <v>404.1576</v>
+        <v>817.7058252427184</v>
       </c>
       <c r="N91" t="n">
-        <v>134.7192</v>
+        <v>408.8529126213592</v>
       </c>
       <c r="O91" t="n">
-        <v>101.0394</v>
+        <v>245.3117475728155</v>
       </c>
       <c r="P91" t="n">
-        <v>67.3596</v>
+        <v>245.3117475728155</v>
       </c>
       <c r="Q91" t="n">
-        <v>67.3596</v>
+        <v>245.3117475728155</v>
       </c>
       <c r="R91" t="n">
-        <v>33.6798</v>
+        <v>163.5411650485437</v>
       </c>
       <c r="S91" t="n">
-        <v>33.6798</v>
+        <v>245.3117475728155</v>
       </c>
     </row>
     <row r="92">
@@ -5713,7 +5361,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>1444.172331398646</v>
+        <v>1444.080822634002</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -5738,7 +5386,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>4412.804691107285</v>
+        <v>4412.522397006568</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -5763,7 +5411,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>3901.617582775119</v>
+        <v>3901.367990122833</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -5788,7 +5436,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>17984.34525905257</v>
+        <v>17983.19477202056</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -5813,7 +5461,7 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>22967.02022823005</v>
+        <v>22965.55099159365</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
@@ -5838,7 +5486,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>10199.75477480428</v>
+        <v>10199.10228034708</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -5863,7 +5511,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>37527.9749484161</v>
+        <v>37525.61938643757</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
@@ -5888,7 +5536,7 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>2815.458477676633</v>
+        <v>2815.280078519138</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
@@ -5913,7 +5561,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>17700.49185743224</v>
+        <v>17699.37028065899</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -5938,7 +5586,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>11419.28499564893</v>
+        <v>11418.56142226344</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
@@ -5963,7 +5611,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>46875.58026897489</v>
+        <v>46872.6379749994</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -5988,7 +5636,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>25546.19055139142</v>
+        <v>25544.58706398657</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
@@ -6013,7 +5661,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>34653.19911582181</v>
+        <v>34651.02399823596</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -6038,7 +5686,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>11598.49943761398</v>
+        <v>11597.75028165577</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
@@ -6063,7 +5711,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1703.502618666062</v>
+        <v>1703.392588127761</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -6088,7 +5736,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>8346.197131454648</v>
+        <v>8345.658044192278</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -6113,7 +5761,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>2903.29327023316</v>
+        <v>2903.105744298144</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -6138,7 +5786,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>2633.189137679621</v>
+        <v>2633.019057977311</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -6163,7 +5811,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>15045.81206718138</v>
+        <v>15044.84024666124</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -6188,7 +5836,7 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>8134.519294435733</v>
+        <v>8133.993879606912</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
@@ -6213,7 +5861,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>11625.34553465511</v>
+        <v>11624.59464468694</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -6238,7 +5886,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>8457.604262910212</v>
+        <v>8457.057979775931</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
@@ -6263,7 +5911,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>25151.23384657951</v>
+        <v>25149.60930913018</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
@@ -6288,7 +5936,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>3548.309538859236</v>
+        <v>3548.080350829619</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -6313,7 +5961,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>8811.456829451012</v>
+        <v>8810.887690708556</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -6338,7 +5986,7 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>15578.81927594388</v>
+        <v>15577.81302808007</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
@@ -6363,7 +6011,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>8128.66057150154</v>
+        <v>8128.135535092119</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -6388,7 +6036,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>950.2295604293269</v>
+        <v>950.1681843745456</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
@@ -6413,7 +6061,7 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>6763.785574972035</v>
+        <v>6763.348696883554</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
@@ -6438,7 +6086,7 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>5857.916463757007</v>
+        <v>5857.538096447932</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
@@ -6463,7 +6111,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>43396.04687599259</v>
+        <v>43393.29712199598</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -6488,7 +6136,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>11596.09465480515</v>
+        <v>11595.35987802437</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -6513,7 +6161,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>14653.96186959555</v>
+        <v>14653.03333363161</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -6538,7 +6186,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>31472.66381065016</v>
+        <v>31470.66957178908</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -6563,7 +6211,7 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>40621.33049490366</v>
+        <v>40618.75655847588</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
@@ -6588,7 +6236,7 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>1660.556588703438</v>
+        <v>1660.449332082092</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
@@ -6613,7 +6261,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>7042.432426603378</v>
+        <v>7041.977550501426</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -6638,7 +6286,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>5935.431499229907</v>
+        <v>5935.048125165347</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -6663,7 +6311,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>3765.932941548039</v>
+        <v>3765.689697056236</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
@@ -6688,7 +6336,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>2440.272941575033</v>
+        <v>2440.115322477522</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
@@ -6713,7 +6361,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>4657.643221335941</v>
+        <v>4657.342380594495</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -6738,7 +6386,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>735.6512146015369</v>
+        <v>735.6036983263888</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -6763,7 +6411,7 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>4916.59986594849</v>
+        <v>4916.282298999117</v>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
@@ -6788,7 +6436,7 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>4873.119677333077</v>
+        <v>4872.804918802373</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
@@ -6813,7 +6461,7 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>2365.741734301803</v>
+        <v>2365.588929232029</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
@@ -6838,7 +6486,7 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>3830.824283995702</v>
+        <v>3830.576848122411</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
@@ -6863,7 +6511,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>4200.154815583121</v>
+        <v>4199.883524368045</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -6888,7 +6536,7 @@
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>3369.005503594145</v>
+        <v>3368.787896949438</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
@@ -6913,7 +6561,7 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>1743.721495167038</v>
+        <v>1743.608866860714</v>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
@@ -6938,7 +6586,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>2763.830414138682</v>
+        <v>2763.651896216311</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -6963,7 +6611,7 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>2359.564545911626</v>
+        <v>2359.412139831179</v>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
@@ -6988,7 +6636,7 @@
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>2405.098414429587</v>
+        <v>2404.943067281713</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
@@ -7013,7 +6661,7 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>2188.329472950654</v>
+        <v>2188.188127074663</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
@@ -7038,7 +6686,7 @@
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>4135.967405726856</v>
+        <v>4135.700260425722</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
@@ -7063,7 +6711,7 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>4760.691837591069</v>
+        <v>4760.384340860607</v>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
@@ -7088,7 +6736,7 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>1650.114902888132</v>
+        <v>1650.008320703266</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
@@ -7113,7 +6761,7 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>1574.035398990475</v>
+        <v>1573.93373083901</v>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
@@ -7138,7 +6786,7 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>2311.169508511857</v>
+        <v>2311.020228303926</v>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
@@ -7163,7 +6811,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>4690.566996128252</v>
+        <v>4690.264028814986</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -7188,7 +6836,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>7943.954465970399</v>
+        <v>7943.44135986974</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -7213,7 +6861,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>3935.085457707895</v>
+        <v>3934.831287525574</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -7238,7 +6886,7 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>3307.324641505806</v>
+        <v>3307.111018875202</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
@@ -7263,7 +6911,7 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>2951.730638491459</v>
+        <v>2951.539983949745</v>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
@@ -7288,7 +6936,7 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>3704.905810197815</v>
+        <v>3704.666507495147</v>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
@@ -7313,7 +6961,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>3148.626633632286</v>
+        <v>3148.423261427506</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -7338,7 +6986,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>4877.572775281146</v>
+        <v>4877.257729121437</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7363,7 +7011,7 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>4774.270631741976</v>
+        <v>4773.962257946804</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
@@ -7388,7 +7036,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>5454.589625472603</v>
+        <v>5454.23730935279</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -7413,7 +7061,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>6259.343998284224</v>
+        <v>6258.93970246337</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -7438,7 +7086,7 @@
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>4957.324487705755</v>
+        <v>4957.004290321885</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
@@ -7463,7 +7111,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>9273.686624895599</v>
+        <v>9273.087630376784</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7488,7 +7136,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>6494.260475636241</v>
+        <v>6493.841006380268</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -7513,7 +7161,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>8122.732068214181</v>
+        <v>8122.207414731325</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -7538,7 +7186,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>62258.65127110903</v>
+        <v>62254.81556662309</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7563,7 +7211,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>53965.37188067286</v>
+        <v>53962.0471183341</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7588,7 +7236,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>57620.19242577207</v>
+        <v>57616.60941373192</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7613,7 +7261,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>61610.26459075534</v>
+        <v>61606.43346297648</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -7638,7 +7286,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>74903.3719590798</v>
+        <v>74898.71422240316</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -7663,7 +7311,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>93624.81830949208</v>
+        <v>93618.99641204368</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -7688,7 +7336,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>1976.224139313118</v>
+        <v>1976.098917533337</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -7713,7 +7361,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>17293.13142361159</v>
+        <v>17292.06600795573</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -7738,7 +7386,7 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>11407.82313766495</v>
+        <v>11407.12031102977</v>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
@@ -7763,7 +7411,7 @@
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>18975.1266737559</v>
+        <v>18973.95763175101</v>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
@@ -7788,7 +7436,7 @@
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>19259.69382330361</v>
+        <v>19258.50724934982</v>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
@@ -7813,7 +7461,7 @@
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>15989.22366631543</v>
+        <v>15988.23858334797</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
@@ -7838,7 +7486,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>10228.02054756366</v>
+        <v>10227.39040759925</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -7863,7 +7511,7 @@
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>25884.44304223447</v>
+        <v>25882.84832291007</v>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
@@ -7888,7 +7536,7 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>7270.017786333869</v>
+        <v>7269.569886495588</v>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
@@ -7913,7 +7561,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>9974.118884333973</v>
+        <v>9973.504387042964</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -7938,7 +7586,7 @@
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>7691.603431587355</v>
+        <v>7691.129558202944</v>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
@@ -7963,7 +7611,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>3749.372779806709</v>
+        <v>3749.14178402223</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7988,7 +7636,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>4960.5434874504</v>
+        <v>4960.237872431137</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -8013,7 +7661,7 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>1841.12920451545</v>
+        <v>1841.015774053903</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
@@ -8038,7 +7686,7 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>24316.355370949</v>
+        <v>24314.85726022103</v>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
@@ -8063,7 +7711,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>12625.95848552845</v>
+        <v>12625.18061057271</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
@@ -8088,7 +7736,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>16310.79469067795</v>
+        <v>16309.7897959832</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -8113,7 +7761,7 @@
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>22662.23884339313</v>
+        <v>22660.84264142893</v>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
@@ -8138,7 +7786,7 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>28962.83426235788</v>
+        <v>28961.04988587304</v>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
@@ -8163,7 +7811,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>5882.599018742622</v>
+        <v>5882.23659663767</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -8188,7 +7836,7 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>35082.20334746226</v>
+        <v>35080.0419616627</v>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
@@ -8213,7 +7861,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>31915.9070398798</v>
+        <v>31913.94072700108</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -8238,7 +7886,7 @@
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="n">
-        <v>24611.18708927333</v>
+        <v>24609.6708142048</v>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
@@ -8263,7 +7911,7 @@
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="n">
-        <v>17255.96404042879</v>
+        <v>17254.90091462494</v>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
@@ -8288,7 +7936,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>19660.53868951424</v>
+        <v>19659.32741983673</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -8313,7 +7961,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>78388.14900506301</v>
+        <v>78383.27457355097</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -8338,7 +7986,7 @@
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>79181.83370343238</v>
+        <v>79176.90991800965</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
@@ -8363,7 +8011,7 @@
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
-        <v>257825.6477735722</v>
+        <v>257810.0513267595</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
@@ -8388,7 +8036,7 @@
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>25253.96776490606</v>
+        <v>25252.35222861593</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
@@ -8413,7 +8061,7 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>41092.2727584826</v>
+        <v>41089.66898119454</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
@@ -8438,7 +8086,7 @@
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
-        <v>47637.47007130287</v>
+        <v>47634.4226269414</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
@@ -8463,7 +8111,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>13574.42594849935</v>
+        <v>13573.5575709857</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -8488,7 +8136,7 @@
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>10918.14576414588</v>
+        <v>10917.44731308001</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
@@ -8513,7 +8161,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>25349.59819418999</v>
+        <v>25347.97654026994</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -8538,7 +8186,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>32365.02421995661</v>
+        <v>32362.97343742904</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -8563,7 +8211,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>45292.50465003972</v>
+        <v>45289.63472859195</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -8588,7 +8236,7 @@
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>41920.35827123149</v>
+        <v>41917.75152623308</v>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
@@ -8613,7 +8261,7 @@
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>16920.09419945902</v>
+        <v>16919.01179425181</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
@@ -8638,7 +8286,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>9262.567910853588</v>
+        <v>9261.975369723456</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -8663,7 +8311,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>11128.53091849385</v>
+        <v>11127.81900875665</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
@@ -8688,7 +8336,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>7393.708015704316</v>
+        <v>7393.235028499726</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -8713,7 +8361,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>3983.699540401947</v>
+        <v>3983.447116632477</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -8738,7 +8386,7 @@
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
-        <v>61095.96259315559</v>
+        <v>61092.09129889237</v>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
@@ -8763,7 +8411,7 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
-        <v>12047.3612912005</v>
+        <v>12046.597920289</v>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
@@ -8788,7 +8436,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>4495.59051185675</v>
+        <v>4495.305652546583</v>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
@@ -8813,7 +8461,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>5309.491042443426</v>
+        <v>5309.15138589753</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -8838,7 +8486,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>29604.57812949703</v>
+        <v>29602.70226031332</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8511,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>11725.52485603341</v>
+        <v>11724.78187801683</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8536,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>13442.75953134147</v>
+        <v>13441.90774219459</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
@@ -8913,7 +8561,7 @@
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="n">
-        <v>20319.01050312916</v>
+        <v>20317.74700059279</v>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
@@ -8938,7 +8586,7 @@
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
-        <v>41664.41479542859</v>
+        <v>41661.82396583269</v>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
@@ -8963,7 +8611,7 @@
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>19307.70901351254</v>
+        <v>19306.49710412209</v>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
@@ -8988,7 +8636,7 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>30307.29302310085</v>
+        <v>30305.39069004889</v>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
@@ -9013,7 +8661,7 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>32212.30609443868</v>
+        <v>32210.2841872193</v>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
@@ -9038,7 +8686,7 @@
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
-        <v>76023.14293921931</v>
+        <v>76018.32579673329</v>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
@@ -9063,7 +8711,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>10327.11091100486</v>
+        <v>10326.46269724316</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -9088,7 +8736,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>93867.12512609611</v>
+        <v>93861.23325926118</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -9113,7 +8761,7 @@
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
-        <v>75635.33920281869</v>
+        <v>75630.59171166032</v>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
@@ -9138,7 +8786,7 @@
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>292461.2453852352</v>
+        <v>292442.3550894944</v>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
@@ -9163,7 +8811,7 @@
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>18620.2597836305</v>
+        <v>18619.05708679584</v>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
@@ -9188,7 +8836,7 @@
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>18484.87086334866</v>
+        <v>18483.67691138802</v>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
@@ -9213,7 +8861,7 @@
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="n">
-        <v>27911.28344486137</v>
+        <v>27909.53150492469</v>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
@@ -9238,7 +8886,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>14083.28393417565</v>
+        <v>14082.38300421123</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
@@ -9263,7 +8911,7 @@
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>13621.61954855909</v>
+        <v>13620.74815199615</v>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
@@ -9288,7 +8936,7 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
-        <v>118648.722907705</v>
+        <v>118641.0592958578</v>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr"/>
@@ -9313,7 +8961,7 @@
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
-        <v>37628.57464503148</v>
+        <v>37626.16748555259</v>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
@@ -9338,7 +8986,7 @@
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
-        <v>77077.61065721841</v>
+        <v>77072.67988046554</v>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
@@ -9363,7 +9011,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>8141.268178148289</v>
+        <v>8140.752313540292</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
@@ -9388,7 +9036,7 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
-        <v>49151.84090167502</v>
+        <v>49148.72643663293</v>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
@@ -9413,7 +9061,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>50682.75984283705</v>
+        <v>50679.54837240438</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
@@ -9438,7 +9086,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>34749.54152108144</v>
+        <v>34747.33964562143</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
@@ -9463,7 +9111,7 @@
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
-        <v>101791.3828312546</v>
+        <v>101784.9329059293</v>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
@@ -9488,7 +9136,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>48059.87758593119</v>
+        <v>48056.83231222583</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
@@ -9513,7 +9161,7 @@
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>11427.23008872296</v>
+        <v>11426.50601190332</v>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
@@ -9538,7 +9186,7 @@
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
-        <v>33624.64526206582</v>
+        <v>33622.51466471076</v>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
@@ -9563,7 +9211,7 @@
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
-        <v>95399.65794671267</v>
+        <v>95393.55507959439</v>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
@@ -9588,7 +9236,7 @@
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
-        <v>90026.0854949069</v>
+        <v>90020.38106774799</v>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
@@ -9613,7 +9261,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>35999.17655691864</v>
+        <v>35996.89549938603</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>

--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2045.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2045.xlsx
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>1444.080822634002</v>
+        <v>1444.080822634</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>4412.522397006568</v>
+        <v>4412.522397006571</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>3901.367990122833</v>
+        <v>3901.367990122837</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>17983.19477202056</v>
+        <v>17983.19477202055</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>10199.10228034708</v>
+        <v>10199.10228034707</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>17699.37028065899</v>
+        <v>17699.370280659</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>11418.56142226344</v>
+        <v>11418.56142226343</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>46872.6379749994</v>
+        <v>46872.63797499942</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>34651.02399823596</v>
+        <v>34651.02399823593</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>11597.75028165577</v>
+        <v>11597.75028165578</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1703.392588127761</v>
+        <v>1703.392588127763</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>8345.658044192278</v>
+        <v>8345.65804419228</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>2903.105744298144</v>
+        <v>2903.105744298145</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>2633.019057977311</v>
+        <v>2633.019057977313</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>15044.84024666124</v>
+        <v>15044.84024666123</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>11624.59464468694</v>
+        <v>11624.59464468695</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>3548.080350829619</v>
+        <v>3548.080350829617</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>8810.887690708556</v>
+        <v>8810.88769070854</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>8128.135535092119</v>
+        <v>8128.135535092116</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>43393.29712199598</v>
+        <v>43393.29712199599</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>11595.35987802437</v>
+        <v>11595.35987802438</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>14653.03333363161</v>
+        <v>14653.0333336316</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>31470.66957178908</v>
+        <v>31470.66957178909</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>7041.977550501426</v>
+        <v>7041.97755050143</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>5935.048125165347</v>
+        <v>5935.048125165346</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>4657.342380594495</v>
+        <v>4657.342380594494</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>735.6036983263888</v>
+        <v>735.6036983263886</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>4199.883524368045</v>
+        <v>4199.883524368048</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>2763.651896216311</v>
+        <v>2763.65189621631</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>4690.264028814986</v>
+        <v>4690.264028814987</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>7943.44135986974</v>
+        <v>7943.441359869738</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>3934.831287525574</v>
+        <v>3934.831287525576</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>3148.423261427506</v>
+        <v>3148.423261427505</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>4877.257729121437</v>
+        <v>4877.257729121438</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>5454.23730935279</v>
+        <v>5454.237309352789</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>6258.93970246337</v>
+        <v>6258.939702463372</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>9273.087630376784</v>
+        <v>9273.08763037678</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>6493.841006380268</v>
+        <v>6493.841006380267</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>8122.207414731325</v>
+        <v>8122.207414731324</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>62254.81556662309</v>
+        <v>62254.81556662313</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>53962.0471183341</v>
+        <v>53962.04711833408</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>57616.60941373192</v>
+        <v>57616.60941373189</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>61606.43346297648</v>
+        <v>61606.43346297649</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>74898.71422240316</v>
+        <v>74898.71422240317</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>93618.99641204368</v>
+        <v>93618.99641204359</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>1976.098917533337</v>
+        <v>1976.098917533336</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>17292.06600795573</v>
+        <v>17292.06600795571</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>9973.504387042964</v>
+        <v>9973.504387042969</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>3749.14178402223</v>
+        <v>3749.141784022229</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>4960.237872431137</v>
+        <v>4960.237872431138</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>12625.18061057271</v>
+        <v>12625.1806105727</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>16309.7897959832</v>
+        <v>16309.78979598319</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>5882.23659663767</v>
+        <v>5882.236596637671</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>31913.94072700108</v>
+        <v>31913.94072700106</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>19659.32741983673</v>
+        <v>19659.32741983675</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>78383.27457355097</v>
+        <v>78383.27457355105</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>13573.5575709857</v>
+        <v>13573.55757098569</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>25347.97654026994</v>
+        <v>25347.97654026995</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>32362.97343742904</v>
+        <v>32362.97343742902</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>45289.63472859195</v>
+        <v>45289.63472859196</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>9261.975369723456</v>
+        <v>9261.975369723457</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>11127.81900875665</v>
+        <v>11127.81900875666</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>7393.235028499726</v>
+        <v>7393.235028499724</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>3983.447116632477</v>
+        <v>3983.447116632479</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>4495.305652546583</v>
+        <v>4495.305652546584</v>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>11724.78187801683</v>
+        <v>11724.78187801682</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>93861.23325926118</v>
+        <v>93861.23325926115</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>14082.38300421123</v>
+        <v>14082.38300421121</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>8140.752313540292</v>
+        <v>8140.752313540289</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>50679.54837240438</v>
+        <v>50679.54837240437</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>34747.33964562143</v>
+        <v>34747.33964562141</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>48056.83231222583</v>
+        <v>48056.83231222588</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>35996.89549938603</v>
+        <v>35996.89549938602</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
